--- a/excel_csv/treasury.xlsx
+++ b/excel_csv/treasury.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8E3799-0311-9F47-92AD-29BFA56BCC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2046C8-A26D-A94C-B1ED-7971A6123318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="29160" windowHeight="18560" activeTab="1" xr2:uid="{499007F8-00B4-49A4-8AA5-C2C01BE4BD82}"/>
   </bookViews>
@@ -30852,23 +30852,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E8C269-9576-EB4E-BE1A-895F6E4ABD45}">
-  <dimension ref="A1:G508"/>
+  <dimension ref="A1:H508"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A476" zoomScale="135" workbookViewId="0">
+      <selection activeCell="J501" sqref="J501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45299</v>
       </c>
@@ -30891,8 +30891,12 @@
         <f>AVERAGE(C2:D2)-F2</f>
         <v>-17.734999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>AVERAGE(G2:G6)</f>
+        <v>-17.670999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45296</v>
       </c>
@@ -30915,8 +30919,12 @@
         <f t="shared" ref="G3:G66" si="0">AVERAGE(C3:D3)-F3</f>
         <v>-17.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">AVERAGE(G3:G7)</f>
+        <v>-17.849999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45295</v>
       </c>
@@ -30939,8 +30947,12 @@
         <f t="shared" si="0"/>
         <v>-17.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-18.127999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45294</v>
       </c>
@@ -30963,8 +30975,12 @@
         <f t="shared" si="0"/>
         <v>-17.569999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-18.412999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45293</v>
       </c>
@@ -30987,8 +31003,12 @@
         <f t="shared" si="0"/>
         <v>-17.939999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-18.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45289</v>
       </c>
@@ -31011,8 +31031,12 @@
         <f t="shared" si="0"/>
         <v>-18.629999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-18.908000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45288</v>
       </c>
@@ -31035,8 +31059,12 @@
         <f t="shared" si="0"/>
         <v>-18.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-18.952000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45287</v>
       </c>
@@ -31059,8 +31087,12 @@
         <f t="shared" si="0"/>
         <v>-19.034999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-18.846000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45282</v>
       </c>
@@ -31083,8 +31115,12 @@
         <f t="shared" si="0"/>
         <v>-19.00500000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-18.634000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45281</v>
       </c>
@@ -31107,8 +31143,12 @@
         <f t="shared" si="0"/>
         <v>-18.980000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-18.369000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45280</v>
       </c>
@@ -31131,8 +31171,12 @@
         <f t="shared" si="0"/>
         <v>-18.850000000000009</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-18.057000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45279</v>
       </c>
@@ -31155,8 +31199,12 @@
         <f t="shared" si="0"/>
         <v>-18.360000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-17.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45278</v>
       </c>
@@ -31179,8 +31227,12 @@
         <f t="shared" si="0"/>
         <v>-17.975000000000009</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>-17.420000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45275</v>
       </c>
@@ -31203,8 +31255,12 @@
         <f t="shared" si="0"/>
         <v>-17.679999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-17.172000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45274</v>
       </c>
@@ -31227,8 +31283,12 @@
         <f t="shared" si="0"/>
         <v>-17.420000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-16.909000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45273</v>
       </c>
@@ -31251,8 +31311,12 @@
         <f t="shared" si="0"/>
         <v>-17.115000000000009</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-16.673000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45272</v>
       </c>
@@ -31275,8 +31339,12 @@
         <f t="shared" si="0"/>
         <v>-16.910000000000011</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-16.415000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45271</v>
       </c>
@@ -31299,8 +31367,12 @@
         <f t="shared" si="0"/>
         <v>-16.734999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-16.170999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45268</v>
       </c>
@@ -31323,8 +31395,12 @@
         <f t="shared" si="0"/>
         <v>-16.365000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-15.957000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45267</v>
       </c>
@@ -31347,8 +31423,12 @@
         <f t="shared" si="0"/>
         <v>-16.240000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-15.778000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45266</v>
       </c>
@@ -31371,8 +31451,12 @@
         <f t="shared" si="0"/>
         <v>-15.825000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-15.672000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45265</v>
       </c>
@@ -31395,8 +31479,12 @@
         <f t="shared" si="0"/>
         <v>-15.689999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-15.696999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45264</v>
       </c>
@@ -31419,8 +31507,12 @@
         <f t="shared" si="0"/>
         <v>-15.665000000000006</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>-15.690999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45261</v>
       </c>
@@ -31443,8 +31535,12 @@
         <f t="shared" si="0"/>
         <v>-15.469999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>-15.625999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45260</v>
       </c>
@@ -31467,8 +31563,12 @@
         <f t="shared" si="0"/>
         <v>-15.709999999999994</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>-15.627999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45259</v>
       </c>
@@ -31491,8 +31591,12 @@
         <f t="shared" si="0"/>
         <v>-15.950000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>-15.590999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45258</v>
       </c>
@@ -31515,8 +31619,12 @@
         <f t="shared" si="0"/>
         <v>-15.659999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-15.468999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45257</v>
       </c>
@@ -31539,8 +31647,12 @@
         <f t="shared" si="0"/>
         <v>-15.340000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>-15.331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45254</v>
       </c>
@@ -31563,8 +31675,12 @@
         <f t="shared" si="0"/>
         <v>-15.47999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>-15.135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45253</v>
       </c>
@@ -31587,8 +31703,12 @@
         <f t="shared" si="0"/>
         <v>-15.525000000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>-14.908000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45252</v>
       </c>
@@ -31611,8 +31731,12 @@
         <f t="shared" si="0"/>
         <v>-15.340000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>-14.599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45251</v>
       </c>
@@ -31635,8 +31759,12 @@
         <f t="shared" si="0"/>
         <v>-14.969999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>-14.366999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45250</v>
       </c>
@@ -31659,8 +31787,12 @@
         <f t="shared" si="0"/>
         <v>-14.36</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>-14.238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45247</v>
       </c>
@@ -31683,8 +31815,12 @@
         <f t="shared" si="0"/>
         <v>-14.344999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>-14.215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45246</v>
       </c>
@@ -31707,8 +31843,12 @@
         <f t="shared" si="0"/>
         <v>-13.980000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>-14.131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45245</v>
       </c>
@@ -31731,8 +31871,12 @@
         <f t="shared" si="0"/>
         <v>-14.179999999999993</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>-14.100999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45244</v>
       </c>
@@ -31755,8 +31899,12 @@
         <f t="shared" si="0"/>
         <v>-14.325000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>-13.984999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45243</v>
       </c>
@@ -31779,8 +31927,12 @@
         <f t="shared" si="0"/>
         <v>-14.245000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>-13.826999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45240</v>
       </c>
@@ -31803,8 +31955,12 @@
         <f t="shared" si="0"/>
         <v>-13.924999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>-13.683999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45239</v>
       </c>
@@ -31827,8 +31983,12 @@
         <f t="shared" si="0"/>
         <v>-13.829999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>-13.579999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45238</v>
       </c>
@@ -31851,8 +32011,12 @@
         <f t="shared" si="0"/>
         <v>-13.599999999999994</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>-13.507999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45237</v>
       </c>
@@ -31875,8 +32039,12 @@
         <f t="shared" si="0"/>
         <v>-13.534999999999982</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>-13.463999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45236</v>
       </c>
@@ -31899,8 +32067,12 @@
         <f t="shared" si="0"/>
         <v>-13.530000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>-13.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45233</v>
       </c>
@@ -31923,8 +32095,12 @@
         <f t="shared" si="0"/>
         <v>-13.405000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>-13.347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45232</v>
       </c>
@@ -31947,8 +32123,12 @@
         <f t="shared" si="0"/>
         <v>-13.469999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>-13.204000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45231</v>
       </c>
@@ -31971,8 +32151,12 @@
         <f t="shared" si="0"/>
         <v>-13.379999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>-13.018000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45230</v>
       </c>
@@ -31995,8 +32179,12 @@
         <f t="shared" si="0"/>
         <v>-13.265000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>-12.829000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45229</v>
       </c>
@@ -32019,8 +32207,12 @@
         <f t="shared" si="0"/>
         <v>-13.215000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>-12.652000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>45226</v>
       </c>
@@ -32043,8 +32235,12 @@
         <f t="shared" si="0"/>
         <v>-12.690000000000012</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>-12.625999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>45225</v>
       </c>
@@ -32067,8 +32263,12 @@
         <f t="shared" si="0"/>
         <v>-12.539999999999992</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>-12.665999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>45224</v>
       </c>
@@ -32091,8 +32291,12 @@
         <f t="shared" si="0"/>
         <v>-12.435000000000016</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>-12.737999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>45223</v>
       </c>
@@ -32115,8 +32319,12 @@
         <f t="shared" si="0"/>
         <v>-12.379999999999981</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>-12.834999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>45222</v>
       </c>
@@ -32139,8 +32347,12 @@
         <f t="shared" si="0"/>
         <v>-13.084999999999994</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>-13.037000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>45219</v>
       </c>
@@ -32163,8 +32375,12 @@
         <f t="shared" si="0"/>
         <v>-12.89</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>-13.145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>45218</v>
       </c>
@@ -32187,8 +32403,12 @@
         <f t="shared" si="0"/>
         <v>-12.899999999999991</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>-13.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>45217</v>
       </c>
@@ -32211,8 +32431,12 @@
         <f t="shared" si="0"/>
         <v>-12.920000000000016</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>-13.451000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>45216</v>
       </c>
@@ -32235,8 +32459,12 @@
         <f t="shared" si="0"/>
         <v>-13.39</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>-13.604000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>45215</v>
       </c>
@@ -32259,8 +32487,12 @@
         <f t="shared" si="0"/>
         <v>-13.624999999999986</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>-13.718999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>45212</v>
       </c>
@@ -32283,8 +32515,12 @@
         <f t="shared" si="0"/>
         <v>-13.665000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>-13.780000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>45211</v>
       </c>
@@ -32307,8 +32543,12 @@
         <f t="shared" si="0"/>
         <v>-13.655000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>-13.843</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>45210</v>
       </c>
@@ -32331,8 +32571,12 @@
         <f t="shared" si="0"/>
         <v>-13.685000000000016</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>-13.989000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>45209</v>
       </c>
@@ -32355,8 +32599,12 @@
         <f t="shared" si="0"/>
         <v>-13.964999999999989</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>-14.173999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>45208</v>
       </c>
@@ -32379,8 +32627,12 @@
         <f t="shared" si="0"/>
         <v>-13.929999999999993</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>-14.300999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>45205</v>
       </c>
@@ -32403,8 +32655,12 @@
         <f t="shared" si="0"/>
         <v>-13.980000000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>-14.419000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>45204</v>
       </c>
@@ -32427,8 +32683,12 @@
         <f t="shared" si="0"/>
         <v>-14.385000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>-14.464000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>45203</v>
       </c>
@@ -32448,11 +32708,15 @@
         <v>91.674999999999997</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="1">AVERAGE(C67:D67)-F67</f>
+        <f t="shared" ref="G67:G130" si="2">AVERAGE(C67:D67)-F67</f>
         <v>-14.61</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="3">AVERAGE(G67:G71)</f>
+        <v>-14.417999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>45202</v>
       </c>
@@ -32472,11 +32736,15 @@
         <v>94.68</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.599999999999994</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>-14.215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>45201</v>
       </c>
@@ -32496,11 +32764,15 @@
         <v>94.555000000000007</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.52000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>-13.943000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>45198</v>
       </c>
@@ -32520,11 +32792,15 @@
         <v>96.325000000000003</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.204999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>-13.681999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>45197</v>
       </c>
@@ -32544,11 +32820,15 @@
         <v>97.77</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.154999999999987</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>-13.472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>45196</v>
       </c>
@@ -32568,11 +32848,15 @@
         <v>97.915000000000006</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.595000000000013</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>-13.289000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>45195</v>
       </c>
@@ -32592,11 +32876,15 @@
         <v>94.135000000000005</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.239999999999995</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>-13.348999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>45194</v>
       </c>
@@ -32616,11 +32904,15 @@
         <v>93.4</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.215000000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>-13.480999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>45191</v>
       </c>
@@ -32640,11 +32932,15 @@
         <v>94.224999999999994</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.155000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>-13.606999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>45190</v>
       </c>
@@ -32664,11 +32960,15 @@
         <v>94.5</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.240000000000009</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>-13.746999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>45189</v>
       </c>
@@ -32688,11 +32988,15 @@
         <v>95.724999999999994</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.894999999999982</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>-13.869999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>45188</v>
       </c>
@@ -32712,11 +33016,15 @@
         <v>96.864999999999995</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.899999999999991</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>-13.836999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>45187</v>
       </c>
@@ -32736,11 +33044,15 @@
         <v>96.24</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.844999999999985</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>-13.863</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>45184</v>
       </c>
@@ -32760,11 +33072,15 @@
         <v>95.14</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.855000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>-13.972000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>45183</v>
       </c>
@@ -32784,11 +33100,15 @@
         <v>95.105000000000004</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.855000000000004</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>-14.062000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>45182</v>
       </c>
@@ -32808,11 +33128,15 @@
         <v>93.385000000000005</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13.730000000000004</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>-14.156000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>45181</v>
       </c>
@@ -32832,11 +33156,15 @@
         <v>93.6</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.030000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>-14.272000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>45180</v>
       </c>
@@ -32856,11 +33184,15 @@
         <v>92.02</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.39</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>-14.288000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>45177</v>
       </c>
@@ -32880,11 +33212,15 @@
         <v>92.394999999999996</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.304999999999993</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>-14.314000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>45176</v>
       </c>
@@ -32904,11 +33240,15 @@
         <v>91.9</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.325000000000017</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>-14.353000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>45175</v>
       </c>
@@ -32928,11 +33268,15 @@
         <v>91.41</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.310000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>-14.371000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>45174</v>
       </c>
@@ -32952,11 +33296,15 @@
         <v>91.935000000000002</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.110000000000014</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>-14.452000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>45173</v>
       </c>
@@ -32976,11 +33324,15 @@
         <v>90.605000000000004</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.519999999999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>-14.597999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>45170</v>
       </c>
@@ -33000,11 +33352,15 @@
         <v>89.44</v>
       </c>
       <c r="G90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>-14.661999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>45169</v>
       </c>
@@ -33024,11 +33380,15 @@
         <v>87.36</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.415000000000006</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>-14.701999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>45168</v>
       </c>
@@ -33048,11 +33408,15 @@
         <v>86.094999999999999</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.715000000000003</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>-14.754999999999992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45167</v>
       </c>
@@ -33072,11 +33436,15 @@
         <v>85.864999999999995</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.839999999999989</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>-14.83199999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45163</v>
       </c>
@@ -33096,11 +33464,15 @@
         <v>85.234999999999999</v>
       </c>
       <c r="G94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.839999999999989</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>-14.903999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45162</v>
       </c>
@@ -33120,11 +33492,15 @@
         <v>83.974999999999994</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.699999999999989</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>-14.969999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45161</v>
       </c>
@@ -33144,11 +33520,15 @@
         <v>84.14</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.679999999999993</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>-15.068999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45160</v>
       </c>
@@ -33168,11 +33548,15 @@
         <v>85.32</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.099999999999994</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>-15.169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45159</v>
       </c>
@@ -33192,11 +33576,15 @@
         <v>86.4</v>
       </c>
       <c r="G98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.200000000000017</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>-15.171999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45156</v>
       </c>
@@ -33216,11 +33604,15 @@
         <v>85.76</v>
       </c>
       <c r="G99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.170000000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>-15.141999999999992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45155</v>
       </c>
@@ -33240,11 +33632,15 @@
         <v>86.03</v>
       </c>
       <c r="G100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.194999999999993</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>-15.062999999999992</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45154</v>
       </c>
@@ -33264,11 +33660,15 @@
         <v>86.11</v>
       </c>
       <c r="G101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.179999999999993</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>-14.927999999999992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45153</v>
       </c>
@@ -33288,11 +33688,15 @@
         <v>86.194999999999993</v>
       </c>
       <c r="G102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.114999999999981</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>-14.729999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45152</v>
       </c>
@@ -33312,11 +33716,15 @@
         <v>87.814999999999998</v>
       </c>
       <c r="G103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.049999999999997</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>-14.524999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45149</v>
       </c>
@@ -33336,11 +33744,15 @@
         <v>88.424999999999997</v>
       </c>
       <c r="G104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.774999999999991</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>-14.367999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45148</v>
       </c>
@@ -33360,11 +33772,15 @@
         <v>88.27</v>
       </c>
       <c r="G105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.519999999999996</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>-14.216999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45147</v>
       </c>
@@ -33384,11 +33800,15 @@
         <v>88.454999999999998</v>
       </c>
       <c r="G106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.189999999999998</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>-14.315000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45146</v>
       </c>
@@ -33408,11 +33828,15 @@
         <v>86.655000000000001</v>
       </c>
       <c r="G107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.090000000000003</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>-14.768000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45145</v>
       </c>
@@ -33432,11 +33856,15 @@
         <v>86.55</v>
       </c>
       <c r="G108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.265000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>-15.177000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45142</v>
       </c>
@@ -33456,11 +33884,15 @@
         <v>86.86</v>
       </c>
       <c r="G109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14.019999999999996</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>-15.589000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>45141</v>
       </c>
@@ -33480,11 +33912,15 @@
         <v>85.8</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15.010000000000005</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>-16.025000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>45140</v>
       </c>
@@ -33504,11 +33940,15 @@
         <v>84.174999999999997</v>
       </c>
       <c r="G111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.454999999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>-16.280999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>45139</v>
       </c>
@@ -33528,11 +33968,15 @@
         <v>85.275000000000006</v>
       </c>
       <c r="G112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.135000000000005</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>-16.262999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45138</v>
       </c>
@@ -33552,11 +33996,15 @@
         <v>85.655000000000001</v>
       </c>
       <c r="G113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.325000000000003</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <f t="shared" si="3"/>
+        <v>-16.309000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45135</v>
       </c>
@@ -33576,11 +34024,15 @@
         <v>83.995000000000005</v>
       </c>
       <c r="G114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.200000000000003</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>-16.315000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45134</v>
       </c>
@@ -33600,11 +34052,15 @@
         <v>83.834999999999994</v>
       </c>
       <c r="G115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.289999999999992</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <f t="shared" si="3"/>
+        <v>-16.354999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45133</v>
       </c>
@@ -33624,11 +34080,15 @@
         <v>83.82</v>
       </c>
       <c r="G116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.364999999999995</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <f t="shared" si="3"/>
+        <v>-16.648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45132</v>
       </c>
@@ -33648,11 +34108,15 @@
         <v>82.935000000000002</v>
       </c>
       <c r="G117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.365000000000009</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <f t="shared" si="3"/>
+        <v>-17.100999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45131</v>
       </c>
@@ -33672,11 +34136,15 @@
         <v>82.465000000000003</v>
       </c>
       <c r="G118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.355000000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <f t="shared" si="3"/>
+        <v>-17.718999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45128</v>
       </c>
@@ -33696,11 +34164,15 @@
         <v>80.364999999999995</v>
       </c>
       <c r="G119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.399999999999991</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <f t="shared" si="3"/>
+        <v>-18.381999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45127</v>
       </c>
@@ -33720,11 +34192,15 @@
         <v>79.489999999999995</v>
       </c>
       <c r="G120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-17.754999999999995</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <f t="shared" si="3"/>
+        <v>-19.009999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45126</v>
       </c>
@@ -33744,11 +34220,15 @@
         <v>80.489999999999995</v>
       </c>
       <c r="G121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18.629999999999995</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <f t="shared" si="3"/>
+        <v>-19.366999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45125</v>
       </c>
@@ -33768,11 +34248,15 @@
         <v>79.73</v>
       </c>
       <c r="G122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.454999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <f t="shared" si="3"/>
+        <v>-19.506999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45124</v>
       </c>
@@ -33792,11 +34276,15 @@
         <v>79.28</v>
       </c>
       <c r="G123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.670000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <f t="shared" si="3"/>
+        <v>-19.472000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45121</v>
       </c>
@@ -33816,11 +34304,15 @@
         <v>80.3</v>
       </c>
       <c r="G124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.539999999999992</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <f t="shared" si="3"/>
+        <v>-19.395999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45120</v>
       </c>
@@ -33840,11 +34332,15 @@
         <v>80.599999999999994</v>
       </c>
       <c r="G125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.539999999999992</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <f t="shared" si="3"/>
+        <v>-19.335000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45119</v>
       </c>
@@ -33864,11 +34360,15 @@
         <v>80.040000000000006</v>
       </c>
       <c r="G126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.330000000000013</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <f t="shared" si="3"/>
+        <v>-19.381</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45118</v>
       </c>
@@ -33888,11 +34388,15 @@
         <v>79.150000000000006</v>
       </c>
       <c r="G127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.28</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <f t="shared" si="3"/>
+        <v>-19.568999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45117</v>
       </c>
@@ -33912,11 +34416,15 @@
         <v>78.569999999999993</v>
       </c>
       <c r="G128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.289999999999992</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <f t="shared" si="3"/>
+        <v>-19.795999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45114</v>
       </c>
@@ -33936,11 +34444,15 @@
         <v>77.739999999999995</v>
       </c>
       <c r="G129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.234999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <f t="shared" si="3"/>
+        <v>-20.113999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45113</v>
       </c>
@@ -33960,11 +34472,15 @@
         <v>75.39</v>
       </c>
       <c r="G130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.769999999999996</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <f t="shared" si="3"/>
+        <v>-20.520999999999994</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45112</v>
       </c>
@@ -33984,11 +34500,15 @@
         <v>76.69</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="2">AVERAGE(C131:D131)-F131</f>
+        <f t="shared" ref="G131:G194" si="4">AVERAGE(C131:D131)-F131</f>
         <v>-20.269999999999996</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="5">AVERAGE(G131:G135)</f>
+        <v>-20.919999999999995</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45111</v>
       </c>
@@ -34008,11 +34528,15 @@
         <v>76.08</v>
       </c>
       <c r="G132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-20.414999999999992</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <f t="shared" si="5"/>
+        <v>-21.203999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45110</v>
       </c>
@@ -34032,11 +34556,15 @@
         <v>75.86</v>
       </c>
       <c r="G133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-20.879999999999995</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <f t="shared" si="5"/>
+        <v>-21.54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45107</v>
       </c>
@@ -34056,11 +34584,15 @@
         <v>75.459999999999994</v>
       </c>
       <c r="G134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-21.269999999999996</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <f t="shared" si="5"/>
+        <v>-21.786999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45106</v>
       </c>
@@ -34080,11 +34612,15 @@
         <v>73.62</v>
       </c>
       <c r="G135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-21.765000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <f t="shared" si="5"/>
+        <v>-21.959</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45105</v>
       </c>
@@ -34104,11 +34640,15 @@
         <v>73.709999999999994</v>
       </c>
       <c r="G136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-21.689999999999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>-22.071999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45104</v>
       </c>
@@ -34128,11 +34668,15 @@
         <v>73.45</v>
       </c>
       <c r="G137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.094999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <f t="shared" si="5"/>
+        <v>-22.244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45103</v>
       </c>
@@ -34152,11 +34696,15 @@
         <v>74.2</v>
       </c>
       <c r="G138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.115000000000009</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <f t="shared" si="5"/>
+        <v>-22.331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45100</v>
       </c>
@@ -34176,11 +34724,15 @@
         <v>73.72</v>
       </c>
       <c r="G139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.129999999999995</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <f t="shared" si="5"/>
+        <v>-22.442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45099</v>
       </c>
@@ -34200,11 +34752,15 @@
         <v>74.31</v>
       </c>
       <c r="G140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.33</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <f t="shared" si="5"/>
+        <v>-22.544999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45098</v>
       </c>
@@ -34224,11 +34780,15 @@
         <v>77.03</v>
       </c>
       <c r="G141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.549999999999997</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <f t="shared" si="5"/>
+        <v>-22.588000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45097</v>
       </c>
@@ -34248,11 +34808,15 @@
         <v>75.08</v>
       </c>
       <c r="G142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.53</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <f t="shared" si="5"/>
+        <v>-22.723000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45096</v>
       </c>
@@ -34272,11 +34836,15 @@
         <v>76.17</v>
       </c>
       <c r="G143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.67</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <f t="shared" si="5"/>
+        <v>-22.917000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45093</v>
       </c>
@@ -34296,11 +34864,15 @@
         <v>75.78</v>
       </c>
       <c r="G144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.644999999999996</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <f t="shared" si="5"/>
+        <v>-23.103000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45092</v>
       </c>
@@ -34320,11 +34892,15 @@
         <v>74.87</v>
       </c>
       <c r="G145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-22.545000000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <f t="shared" si="5"/>
+        <v>-23.323000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45091</v>
       </c>
@@ -34344,11 +34920,15 @@
         <v>73.84</v>
       </c>
       <c r="G146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-23.225000000000009</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <f t="shared" si="5"/>
+        <v>-23.76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45090</v>
       </c>
@@ -34368,11 +34948,15 @@
         <v>74.05</v>
       </c>
       <c r="G147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-23.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <f t="shared" si="5"/>
+        <v>-24.073000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45089</v>
       </c>
@@ -34392,11 +34976,15 @@
         <v>72.59</v>
       </c>
       <c r="G148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-23.600000000000009</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <f t="shared" si="5"/>
+        <v>-24.324000000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>45086</v>
       </c>
@@ -34416,11 +35004,15 @@
         <v>76.180000000000007</v>
       </c>
       <c r="G149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-23.745000000000005</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <f t="shared" si="5"/>
+        <v>-24.550000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>45085</v>
       </c>
@@ -34440,11 +35032,15 @@
         <v>76.16</v>
       </c>
       <c r="G150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24.729999999999997</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <f t="shared" si="5"/>
+        <v>-24.73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>45084</v>
       </c>
@@ -34464,11 +35060,15 @@
         <v>77.31</v>
       </c>
       <c r="G151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24.790000000000006</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <f t="shared" si="5"/>
+        <v>-24.714000000000006</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>45083</v>
       </c>
@@ -34488,11 +35088,15 @@
         <v>76.430000000000007</v>
       </c>
       <c r="G152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24.75500000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <f t="shared" si="5"/>
+        <v>-24.692</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>45082</v>
       </c>
@@ -34512,11 +35116,15 @@
         <v>77.36</v>
       </c>
       <c r="G153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24.730000000000004</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <f t="shared" si="5"/>
+        <v>-24.753999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>45079</v>
       </c>
@@ -34536,11 +35144,15 @@
         <v>76</v>
       </c>
       <c r="G154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24.644999999999996</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <f t="shared" si="5"/>
+        <v>-24.871000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>45078</v>
       </c>
@@ -34560,11 +35172,15 @@
         <v>74.59</v>
       </c>
       <c r="G155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24.650000000000006</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <f t="shared" si="5"/>
+        <v>-25.018999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>45077</v>
       </c>
@@ -34584,11 +35200,15 @@
         <v>73.02</v>
       </c>
       <c r="G156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24.679999999999993</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <f t="shared" si="5"/>
+        <v>-25.141999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>45076</v>
       </c>
@@ -34608,11 +35228,15 @@
         <v>74.13</v>
       </c>
       <c r="G157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.064999999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <f t="shared" si="5"/>
+        <v>-25.351000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>45072</v>
       </c>
@@ -34632,11 +35256,15 @@
         <v>77.040000000000006</v>
       </c>
       <c r="G158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.315000000000012</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <f t="shared" si="5"/>
+        <v>-25.473000000000006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>45071</v>
       </c>
@@ -34656,11 +35284,15 @@
         <v>76.3</v>
       </c>
       <c r="G159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.384999999999991</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <f t="shared" si="5"/>
+        <v>-25.51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>45070</v>
       </c>
@@ -34680,11 +35312,15 @@
         <v>78.180000000000007</v>
       </c>
       <c r="G160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.265000000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <f t="shared" si="5"/>
+        <v>-25.567000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>45069</v>
       </c>
@@ -34704,11 +35340,15 @@
         <v>77.180000000000007</v>
       </c>
       <c r="G161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.725000000000009</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <f t="shared" si="5"/>
+        <v>-25.634000000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>45068</v>
       </c>
@@ -34728,11 +35368,15 @@
         <v>76.040000000000006</v>
       </c>
       <c r="G162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.675000000000011</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <f t="shared" si="5"/>
+        <v>-25.624000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>45065</v>
       </c>
@@ -34752,11 +35396,15 @@
         <v>75.88</v>
       </c>
       <c r="G163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <f t="shared" si="5"/>
+        <v>-25.651999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>45064</v>
       </c>
@@ -34776,11 +35424,15 @@
         <v>76.03</v>
       </c>
       <c r="G164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.67</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <f t="shared" si="5"/>
+        <v>-25.642000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>45063</v>
       </c>
@@ -34800,11 +35452,15 @@
         <v>76.23</v>
       </c>
       <c r="G165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.600000000000009</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165">
+        <f t="shared" si="5"/>
+        <v>-25.617000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>45062</v>
       </c>
@@ -34824,11 +35480,15 @@
         <v>74.989999999999995</v>
       </c>
       <c r="G166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.674999999999997</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <f t="shared" si="5"/>
+        <v>-25.643000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>45061</v>
       </c>
@@ -34848,11 +35508,15 @@
         <v>75.31</v>
       </c>
       <c r="G167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.814999999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <f t="shared" si="5"/>
+        <v>-25.648000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>45058</v>
       </c>
@@ -34872,11 +35536,15 @@
         <v>74.81</v>
       </c>
       <c r="G168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.450000000000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <f t="shared" si="5"/>
+        <v>-25.595000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>45057</v>
       </c>
@@ -34896,11 +35564,15 @@
         <v>75.73</v>
       </c>
       <c r="G169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.545000000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <f t="shared" si="5"/>
+        <v>-25.639999999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>45056</v>
       </c>
@@ -34920,11 +35592,15 @@
         <v>76.954999999999998</v>
       </c>
       <c r="G170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.730000000000004</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <f t="shared" si="5"/>
+        <v>-25.685000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>45055</v>
       </c>
@@ -34944,11 +35620,15 @@
         <v>75.25</v>
       </c>
       <c r="G171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.700000000000003</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <f t="shared" si="5"/>
+        <v>-25.661999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>45051</v>
       </c>
@@ -34968,11 +35648,15 @@
         <v>75.069999999999993</v>
       </c>
       <c r="G172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.549999999999997</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <f t="shared" si="5"/>
+        <v>-25.640999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>45050</v>
       </c>
@@ -34992,11 +35676,15 @@
         <v>72.47</v>
       </c>
       <c r="G173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.674999999999997</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <f t="shared" si="5"/>
+        <v>-25.629999999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>45049</v>
       </c>
@@ -35016,11 +35704,15 @@
         <v>71.92</v>
       </c>
       <c r="G174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.769999999999996</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <f t="shared" si="5"/>
+        <v>-25.597000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>45048</v>
       </c>
@@ -35040,11 +35732,15 @@
         <v>75.73</v>
       </c>
       <c r="G175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.615000000000009</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <f t="shared" si="5"/>
+        <v>-25.784000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>45044</v>
       </c>
@@ -35064,11 +35760,15 @@
         <v>80.349999999999994</v>
       </c>
       <c r="G176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.594999999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <f t="shared" si="5"/>
+        <v>-26.15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>45043</v>
       </c>
@@ -35088,11 +35788,15 @@
         <v>78.239999999999995</v>
       </c>
       <c r="G177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.49499999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <f t="shared" si="5"/>
+        <v>-26.520000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>45042</v>
       </c>
@@ -35112,11 +35816,15 @@
         <v>80.42</v>
       </c>
       <c r="G178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-25.510000000000005</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <f t="shared" si="5"/>
+        <v>-26.902000000000005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>45041</v>
       </c>
@@ -35136,11 +35844,15 @@
         <v>80.900000000000006</v>
       </c>
       <c r="G179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-26.705000000000005</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <f t="shared" si="5"/>
+        <v>-27.274999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>45040</v>
       </c>
@@ -35160,11 +35872,15 @@
         <v>82.43</v>
       </c>
       <c r="G180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-27.445000000000007</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <f t="shared" si="5"/>
+        <v>-27.432999999999993</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>45037</v>
       </c>
@@ -35184,11 +35900,15 @@
         <v>81.63</v>
       </c>
       <c r="G181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-27.444999999999993</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <f t="shared" si="5"/>
+        <v>-27.537999999999993</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>45036</v>
       </c>
@@ -35208,11 +35928,15 @@
         <v>81.349999999999994</v>
       </c>
       <c r="G182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-27.404999999999994</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <f t="shared" si="5"/>
+        <v>-27.798999999999996</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>45035</v>
       </c>
@@ -35232,11 +35956,15 @@
         <v>83.82</v>
       </c>
       <c r="G183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-27.374999999999993</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <f t="shared" si="5"/>
+        <v>-28.265999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>45034</v>
       </c>
@@ -35256,11 +35984,15 @@
         <v>85.1</v>
       </c>
       <c r="G184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-27.49499999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <f t="shared" si="5"/>
+        <v>-28.715999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>45033</v>
       </c>
@@ -35280,11 +36012,15 @@
         <v>85.11</v>
       </c>
       <c r="G185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-27.97</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <f t="shared" si="5"/>
+        <v>-29.168000000000006</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>45030</v>
       </c>
@@ -35304,11 +36040,15 @@
         <v>86.56</v>
       </c>
       <c r="G186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-28.75</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <f t="shared" si="5"/>
+        <v>-29.470000000000006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>45029</v>
       </c>
@@ -35328,11 +36068,15 @@
         <v>86.93</v>
       </c>
       <c r="G187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-29.740000000000009</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <f t="shared" si="5"/>
+        <v>-29.692000000000007</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>45028</v>
       </c>
@@ -35352,11 +36096,15 @@
         <v>87.17</v>
       </c>
       <c r="G188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-29.625</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <f t="shared" si="5"/>
+        <v>-29.720000000000006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>45027</v>
       </c>
@@ -35376,11 +36124,15 @@
         <v>85.01</v>
       </c>
       <c r="G189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-29.75500000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <f t="shared" si="5"/>
+        <v>-29.985000000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>45022</v>
       </c>
@@ -35400,11 +36152,15 @@
         <v>85.2</v>
       </c>
       <c r="G190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-29.480000000000004</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <f t="shared" si="5"/>
+        <v>-30.606000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>45021</v>
       </c>
@@ -35424,11 +36180,15 @@
         <v>84.78</v>
       </c>
       <c r="G191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-29.86</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <f t="shared" si="5"/>
+        <v>-31.518999999999995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>45020</v>
       </c>
@@ -35448,11 +36208,15 @@
         <v>84.49</v>
       </c>
       <c r="G192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-29.879999999999995</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <f t="shared" si="5"/>
+        <v>-32.593999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>45019</v>
       </c>
@@ -35472,11 +36236,15 @@
         <v>84.75</v>
       </c>
       <c r="G193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-30.950000000000003</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <f t="shared" si="5"/>
+        <v>-33.628999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>45016</v>
       </c>
@@ -35496,11 +36264,15 @@
         <v>79.8</v>
       </c>
       <c r="G194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-32.86</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <f t="shared" si="5"/>
+        <v>-34.468999999999994</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>45015</v>
       </c>
@@ -35520,11 +36292,15 @@
         <v>78.959999999999994</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G258" si="3">AVERAGE(C195:D195)-F195</f>
+        <f t="shared" ref="G195:G258" si="6">AVERAGE(C195:D195)-F195</f>
         <v>-34.044999999999987</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195">
+        <f t="shared" ref="H195:H258" si="7">AVERAGE(G195:G199)</f>
+        <v>-34.968999999999994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>45014</v>
       </c>
@@ -35544,11 +36320,15 @@
         <v>79.16</v>
       </c>
       <c r="G196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.234999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196">
+        <f t="shared" si="7"/>
+        <v>-35.201000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>45013</v>
       </c>
@@ -35568,11 +36348,15 @@
         <v>78.8</v>
       </c>
       <c r="G197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.054999999999993</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197">
+        <f t="shared" si="7"/>
+        <v>-35.181999999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>45012</v>
       </c>
@@ -35592,11 +36376,15 @@
         <v>76.319999999999993</v>
       </c>
       <c r="G198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.149999999999991</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198">
+        <f t="shared" si="7"/>
+        <v>-35.161999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>45009</v>
       </c>
@@ -35616,11 +36404,15 @@
         <v>74.540000000000006</v>
       </c>
       <c r="G199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.360000000000007</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199">
+        <f t="shared" si="7"/>
+        <v>-35.123000000000005</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>45008</v>
       </c>
@@ -35640,11 +36432,15 @@
         <v>76.959999999999994</v>
       </c>
       <c r="G200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.204999999999998</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200">
+        <f t="shared" si="7"/>
+        <v>-35.073</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>45007</v>
       </c>
@@ -35664,11 +36460,15 @@
         <v>76.38</v>
       </c>
       <c r="G201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.14</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201">
+        <f t="shared" si="7"/>
+        <v>-35.065999999999995</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>45006</v>
       </c>
@@ -35688,11 +36488,15 @@
         <v>74.709999999999994</v>
       </c>
       <c r="G202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-34.954999999999998</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202">
+        <f t="shared" si="7"/>
+        <v>-35.061999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>45005</v>
       </c>
@@ -35712,11 +36516,15 @@
         <v>72.77</v>
       </c>
       <c r="G203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-34.954999999999998</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203">
+        <f t="shared" si="7"/>
+        <v>-35.095000000000006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>45002</v>
       </c>
@@ -35736,11 +36544,15 @@
         <v>73.44</v>
       </c>
       <c r="G204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.11</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204">
+        <f t="shared" si="7"/>
+        <v>-35.21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>45001</v>
       </c>
@@ -35760,11 +36572,15 @@
         <v>74.36</v>
       </c>
       <c r="G205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.17</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <f t="shared" si="7"/>
+        <v>-35.370999999999995</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>45000</v>
       </c>
@@ -35784,11 +36600,15 @@
         <v>72.510000000000005</v>
       </c>
       <c r="G206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.120000000000005</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <f t="shared" si="7"/>
+        <v>-35.61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>44999</v>
       </c>
@@ -35808,11 +36628,15 @@
         <v>79.510000000000005</v>
       </c>
       <c r="G207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.120000000000005</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207">
+        <f t="shared" si="7"/>
+        <v>-35.994999999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>44998</v>
       </c>
@@ -35832,11 +36656,15 @@
         <v>81.72</v>
       </c>
       <c r="G208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.53</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208">
+        <f t="shared" si="7"/>
+        <v>-36.375999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>44995</v>
       </c>
@@ -35856,11 +36684,15 @@
         <v>82.8</v>
       </c>
       <c r="G209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.914999999999992</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209">
+        <f t="shared" si="7"/>
+        <v>-36.697000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>44994</v>
       </c>
@@ -35880,11 +36712,15 @@
         <v>83.41</v>
       </c>
       <c r="G210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-36.364999999999995</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210">
+        <f t="shared" si="7"/>
+        <v>-36.942999999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>44993</v>
       </c>
@@ -35904,11 +36740,15 @@
         <v>82.85</v>
       </c>
       <c r="G211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.044999999999995</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211">
+        <f t="shared" si="7"/>
+        <v>-37.045000000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>44992</v>
       </c>
@@ -35928,11 +36768,15 @@
         <v>84.31</v>
       </c>
       <c r="G212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.025000000000006</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212">
+        <f t="shared" si="7"/>
+        <v>-37.015999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>44991</v>
       </c>
@@ -35952,11 +36796,15 @@
         <v>86.18</v>
       </c>
       <c r="G213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.135000000000005</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213">
+        <f t="shared" si="7"/>
+        <v>-37.112000000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>44988</v>
       </c>
@@ -35976,11 +36824,15 @@
         <v>85.44</v>
       </c>
       <c r="G214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.144999999999996</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214">
+        <f t="shared" si="7"/>
+        <v>-37.15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>44987</v>
       </c>
@@ -36000,11 +36852,15 @@
         <v>85.09</v>
       </c>
       <c r="G215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-36.875</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215">
+        <f t="shared" si="7"/>
+        <v>-37.222999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>44986</v>
       </c>
@@ -36024,11 +36880,15 @@
         <v>83.71</v>
       </c>
       <c r="G216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-36.899999999999991</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <f t="shared" si="7"/>
+        <v>-37.327000000000005</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>44985</v>
       </c>
@@ -36048,11 +36908,15 @@
         <v>84.22</v>
       </c>
       <c r="G217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.504999999999995</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <f t="shared" si="7"/>
+        <v>-37.442999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>44984</v>
       </c>
@@ -36072,11 +36936,15 @@
         <v>82.22</v>
       </c>
       <c r="G218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.325000000000003</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <f t="shared" si="7"/>
+        <v>-37.475999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>44981</v>
       </c>
@@ -36096,11 +36964,15 @@
         <v>82.84</v>
       </c>
       <c r="G219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.510000000000005</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <f t="shared" si="7"/>
+        <v>-37.488999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>44980</v>
       </c>
@@ -36120,11 +36992,15 @@
         <v>81.84</v>
       </c>
       <c r="G220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.395000000000003</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <f t="shared" si="7"/>
+        <v>-37.512999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>44979</v>
       </c>
@@ -36144,11 +37020,15 @@
         <v>81.349999999999994</v>
       </c>
       <c r="G221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.47999999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <f t="shared" si="7"/>
+        <v>-37.619999999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>44978</v>
       </c>
@@ -36168,11 +37048,15 @@
         <v>83.19</v>
       </c>
       <c r="G222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.67</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <f t="shared" si="7"/>
+        <v>-37.641000000000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>44977</v>
       </c>
@@ -36192,11 +37076,15 @@
         <v>83.4</v>
       </c>
       <c r="G223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.39</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <f t="shared" si="7"/>
+        <v>-37.603000000000009</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>44974</v>
       </c>
@@ -36216,11 +37104,15 @@
         <v>83</v>
       </c>
       <c r="G224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.629999999999995</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <f t="shared" si="7"/>
+        <v>-37.605000000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>44973</v>
       </c>
@@ -36240,11 +37132,15 @@
         <v>85.42</v>
       </c>
       <c r="G225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.930000000000007</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <f t="shared" si="7"/>
+        <v>-37.663000000000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>44972</v>
       </c>
@@ -36264,11 +37160,15 @@
         <v>84.43</v>
       </c>
       <c r="G226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.585000000000008</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <f t="shared" si="7"/>
+        <v>-37.648000000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>44971</v>
       </c>
@@ -36288,11 +37188,15 @@
         <v>85.34</v>
       </c>
       <c r="G227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.480000000000004</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <f t="shared" si="7"/>
+        <v>-37.688000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>44970</v>
       </c>
@@ -36312,11 +37216,15 @@
         <v>86.11</v>
       </c>
       <c r="G228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.400000000000006</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <f t="shared" si="7"/>
+        <v>-37.769999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>44967</v>
       </c>
@@ -36336,11 +37244,15 @@
         <v>86.49</v>
       </c>
       <c r="G229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.919999999999995</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <f t="shared" si="7"/>
+        <v>-37.830999999999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>44966</v>
       </c>
@@ -36360,11 +37272,15 @@
         <v>84.1</v>
       </c>
       <c r="G230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.85499999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <f t="shared" si="7"/>
+        <v>-37.804999999999993</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>44965</v>
       </c>
@@ -36384,11 +37300,15 @@
         <v>84</v>
       </c>
       <c r="G231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.784999999999997</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <f t="shared" si="7"/>
+        <v>-37.924999999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>44964</v>
       </c>
@@ -36408,11 +37328,15 @@
         <v>83.1</v>
       </c>
       <c r="G232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.89</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <f t="shared" si="7"/>
+        <v>-38.075000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>44963</v>
       </c>
@@ -36432,11 +37356,15 @@
         <v>80.209999999999994</v>
       </c>
       <c r="G233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.704999999999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <f t="shared" si="7"/>
+        <v>-38.174999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>44960</v>
       </c>
@@ -36456,11 +37384,15 @@
         <v>81.69</v>
       </c>
       <c r="G234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.789999999999992</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <f t="shared" si="7"/>
+        <v>-38.347999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>44959</v>
       </c>
@@ -36480,11 +37412,15 @@
         <v>81.94</v>
       </c>
       <c r="G235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.454999999999998</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <f t="shared" si="7"/>
+        <v>-38.478999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>44958</v>
       </c>
@@ -36504,11 +37440,15 @@
         <v>84.29</v>
       </c>
       <c r="G236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.535000000000011</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <f t="shared" si="7"/>
+        <v>-38.475999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>44957</v>
       </c>
@@ -36528,11 +37468,15 @@
         <v>85.27</v>
       </c>
       <c r="G237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.39</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <f t="shared" si="7"/>
+        <v>-38.462999999999994</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>44956</v>
       </c>
@@ -36552,11 +37496,15 @@
         <v>85.83</v>
       </c>
       <c r="G238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.569999999999993</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <f t="shared" si="7"/>
+        <v>-38.479999999999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>44953</v>
       </c>
@@ -36576,11 +37524,15 @@
         <v>86.88</v>
       </c>
       <c r="G239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.444999999999993</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <f t="shared" si="7"/>
+        <v>-38.476999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>44952</v>
       </c>
@@ -36600,11 +37552,15 @@
         <v>87.73</v>
       </c>
       <c r="G240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.44</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <f t="shared" si="7"/>
+        <v>-38.477999999999994</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>44951</v>
       </c>
@@ -36624,11 +37580,15 @@
         <v>86.66</v>
       </c>
       <c r="G241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.47</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <f t="shared" si="7"/>
+        <v>-38.567999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>44950</v>
       </c>
@@ -36648,11 +37608,15 @@
         <v>86.88</v>
       </c>
       <c r="G242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.474999999999994</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <f t="shared" si="7"/>
+        <v>-38.718000000000004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>44949</v>
       </c>
@@ -36672,11 +37636,15 @@
         <v>89.07</v>
       </c>
       <c r="G243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.554999999999993</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <f t="shared" si="7"/>
+        <v>-38.864999999999995</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>44946</v>
       </c>
@@ -36696,11 +37664,15 @@
         <v>86.78</v>
       </c>
       <c r="G244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.450000000000003</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <f t="shared" si="7"/>
+        <v>-39.102999999999994</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>44945</v>
       </c>
@@ -36720,11 +37692,15 @@
         <v>85.54</v>
       </c>
       <c r="G245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.89</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <f t="shared" si="7"/>
+        <v>-39.452999999999996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>44944</v>
       </c>
@@ -36744,11 +37720,15 @@
         <v>87.31</v>
       </c>
       <c r="G246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-39.22</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246">
+        <f t="shared" si="7"/>
+        <v>-39.694000000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>44943</v>
       </c>
@@ -36768,11 +37748,15 @@
         <v>85.75</v>
       </c>
       <c r="G247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-39.209999999999994</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247">
+        <f t="shared" si="7"/>
+        <v>-39.911999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>44942</v>
       </c>
@@ -36792,11 +37776,15 @@
         <v>84.29</v>
       </c>
       <c r="G248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-39.745000000000005</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H248">
+        <f t="shared" si="7"/>
+        <v>-39.934000000000005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>44939</v>
       </c>
@@ -36816,11 +37804,15 @@
         <v>84.9</v>
       </c>
       <c r="G249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-40.200000000000003</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H249">
+        <f t="shared" si="7"/>
+        <v>-39.678000000000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>44938</v>
       </c>
@@ -36840,11 +37832,15 @@
         <v>84.34</v>
       </c>
       <c r="G250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-40.094999999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H250">
+        <f t="shared" si="7"/>
+        <v>-39.344999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>44937</v>
       </c>
@@ -36864,11 +37860,15 @@
         <v>82.19</v>
       </c>
       <c r="G251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-40.31</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H251">
+        <f t="shared" si="7"/>
+        <v>-39.048000000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>44936</v>
       </c>
@@ -36888,11 +37888,15 @@
         <v>79.760000000000005</v>
       </c>
       <c r="G252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-39.320000000000007</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H252">
+        <f t="shared" si="7"/>
+        <v>-38.773000000000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>44935</v>
       </c>
@@ -36912,11 +37916,15 @@
         <v>79.7</v>
       </c>
       <c r="G253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.465000000000003</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253">
+        <f t="shared" si="7"/>
+        <v>-38.591000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>44932</v>
       </c>
@@ -36936,11 +37944,15 @@
         <v>79.739999999999995</v>
       </c>
       <c r="G254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.534999999999997</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H254">
+        <f t="shared" si="7"/>
+        <v>-38.453000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>44931</v>
       </c>
@@ -36960,11 +37972,15 @@
         <v>79.16</v>
       </c>
       <c r="G255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.61</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255">
+        <f t="shared" si="7"/>
+        <v>-38.355000000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>44930</v>
       </c>
@@ -36984,11 +38000,15 @@
         <v>77.97</v>
       </c>
       <c r="G256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.935000000000002</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256">
+        <f t="shared" si="7"/>
+        <v>-38.238</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>44929</v>
       </c>
@@ -37008,11 +38028,15 @@
         <v>83.16</v>
       </c>
       <c r="G257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-38.409999999999997</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257">
+        <f t="shared" si="7"/>
+        <v>-38.073999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>44925</v>
       </c>
@@ -37032,11 +38056,15 @@
         <v>82.64</v>
       </c>
       <c r="G258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.775000000000006</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H258">
+        <f t="shared" si="7"/>
+        <v>-38.020000000000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>44924</v>
       </c>
@@ -37056,11 +38084,15 @@
         <v>82.26</v>
       </c>
       <c r="G259">
-        <f t="shared" ref="G259:G322" si="4">AVERAGE(C259:D259)-F259</f>
+        <f t="shared" ref="G259:G322" si="8">AVERAGE(C259:D259)-F259</f>
         <v>-38.045000000000002</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259">
+        <f t="shared" ref="H259:H322" si="9">AVERAGE(G259:G263)</f>
+        <v>-38.063000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>44923</v>
       </c>
@@ -37080,11 +38112,15 @@
         <v>82.49</v>
       </c>
       <c r="G260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-38.024999999999991</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260">
+        <f t="shared" si="9"/>
+        <v>-38.036999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>44918</v>
       </c>
@@ -37104,11 +38140,15 @@
         <v>82.18</v>
       </c>
       <c r="G261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-38.115000000000009</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H261">
+        <f t="shared" si="9"/>
+        <v>-37.894000000000005</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>44917</v>
       </c>
@@ -37128,11 +38168,15 @@
         <v>82.11</v>
       </c>
       <c r="G262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-38.14</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H262">
+        <f t="shared" si="9"/>
+        <v>-37.516999999999996</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>44916</v>
       </c>
@@ -37152,11 +38196,15 @@
         <v>81.709999999999994</v>
       </c>
       <c r="G263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-37.989999999999995</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H263">
+        <f t="shared" si="9"/>
+        <v>-36.920999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>44915</v>
       </c>
@@ -37176,11 +38224,15 @@
         <v>79.37</v>
       </c>
       <c r="G264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-37.915000000000006</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H264">
+        <f t="shared" si="9"/>
+        <v>-36.335999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>44914</v>
       </c>
@@ -37200,11 +38252,15 @@
         <v>79.849999999999994</v>
       </c>
       <c r="G265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-37.309999999999988</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H265">
+        <f t="shared" si="9"/>
+        <v>-35.851999999999997</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>44911</v>
       </c>
@@ -37224,11 +38280,15 @@
         <v>78.489999999999995</v>
       </c>
       <c r="G266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-36.22999999999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H266">
+        <f t="shared" si="9"/>
+        <v>-35.540999999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>44910</v>
       </c>
@@ -37248,11 +38308,15 @@
         <v>81.14</v>
       </c>
       <c r="G267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-35.159999999999997</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H267">
+        <f t="shared" si="9"/>
+        <v>-35.455999999999996</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>44909</v>
       </c>
@@ -37272,11 +38336,15 @@
         <v>82.82</v>
       </c>
       <c r="G268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-35.064999999999998</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H268">
+        <f t="shared" si="9"/>
+        <v>-35.622</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>44908</v>
       </c>
@@ -37296,11 +38364,15 @@
         <v>80.599999999999994</v>
       </c>
       <c r="G269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-35.49499999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H269">
+        <f t="shared" si="9"/>
+        <v>-35.597999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>44907</v>
       </c>
@@ -37320,11 +38392,15 @@
         <v>78.599999999999994</v>
       </c>
       <c r="G270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-35.754999999999995</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H270">
+        <f t="shared" si="9"/>
+        <v>-35.482000000000006</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>44904</v>
       </c>
@@ -37344,11 +38420,15 @@
         <v>77.52</v>
       </c>
       <c r="G271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-35.804999999999993</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H271">
+        <f t="shared" si="9"/>
+        <v>-34.843000000000004</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>44903</v>
       </c>
@@ -37368,11 +38448,15 @@
         <v>76.45</v>
       </c>
       <c r="G272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-35.990000000000009</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H272">
+        <f t="shared" si="9"/>
+        <v>-34.202000000000005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>44902</v>
       </c>
@@ -37392,11 +38476,15 @@
         <v>78.59</v>
       </c>
       <c r="G273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-34.945000000000007</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H273">
+        <f t="shared" si="9"/>
+        <v>-33.536000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>44901</v>
       </c>
@@ -37416,11 +38504,15 @@
         <v>80.45</v>
       </c>
       <c r="G274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-34.915000000000006</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H274">
+        <f t="shared" si="9"/>
+        <v>-32.894000000000005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>44900</v>
       </c>
@@ -37440,11 +38532,15 @@
         <v>85.11</v>
       </c>
       <c r="G275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-32.56</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H275">
+        <f t="shared" si="9"/>
+        <v>-32.382500000000007</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>44897</v>
       </c>
@@ -37464,11 +38560,15 @@
         <v>86.47</v>
       </c>
       <c r="G276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-32.599999999999994</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H276">
+        <f t="shared" si="9"/>
+        <v>-32.480999999999995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>44896</v>
       </c>
@@ -37488,11 +38588,15 @@
         <v>88.74</v>
       </c>
       <c r="G277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-32.659999999999997</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H277">
+        <f t="shared" si="9"/>
+        <v>-32.570500000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>44895</v>
       </c>
@@ -37512,11 +38616,15 @@
         <v>85.48</v>
       </c>
       <c r="G278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-31.734999999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H278">
+        <f t="shared" si="9"/>
+        <v>-32.613999999999997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>44894</v>
       </c>
@@ -37536,11 +38644,15 @@
         <v>83.04</v>
       </c>
       <c r="G279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-32.357500000000002</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H279">
+        <f t="shared" si="9"/>
+        <v>-32.846499999999992</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>44893</v>
       </c>
@@ -37560,11 +38672,15 @@
         <v>82.52</v>
       </c>
       <c r="G280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-33.052499999999995</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H280">
+        <f t="shared" si="9"/>
+        <v>-32.952500000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>44890</v>
       </c>
@@ -37584,11 +38700,15 @@
         <v>85.42</v>
       </c>
       <c r="G281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-33.047499999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H281">
+        <f t="shared" si="9"/>
+        <v>-32.845499999999994</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>44889</v>
       </c>
@@ -37608,11 +38728,15 @@
         <v>85.27</v>
       </c>
       <c r="G282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-32.877499999999998</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H282">
+        <f t="shared" si="9"/>
+        <v>-32.5045</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>44888</v>
       </c>
@@ -37632,11 +38756,15 @@
         <v>85.02</v>
       </c>
       <c r="G283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-32.897499999999994</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H283">
+        <f t="shared" si="9"/>
+        <v>-32.045499999999997</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>44887</v>
       </c>
@@ -37656,11 +38784,15 @@
         <v>89.2</v>
       </c>
       <c r="G284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-32.887500000000003</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H284">
+        <f t="shared" si="9"/>
+        <v>-31.545500000000004</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>44886</v>
       </c>
@@ -37680,11 +38812,15 @@
         <v>82.94</v>
       </c>
       <c r="G285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-32.517499999999998</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H285">
+        <f t="shared" si="9"/>
+        <v>-31.060500000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>44883</v>
       </c>
@@ -37704,11 +38840,15 @@
         <v>87.6</v>
       </c>
       <c r="G286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-31.342499999999994</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H286">
+        <f t="shared" si="9"/>
+        <v>-30.624500000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>44882</v>
       </c>
@@ -37728,11 +38868,15 @@
         <v>90.51</v>
       </c>
       <c r="G287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-30.582500000000003</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H287">
+        <f t="shared" si="9"/>
+        <v>-30.370500000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>44881</v>
       </c>
@@ -37752,11 +38896,15 @@
         <v>92.13</v>
       </c>
       <c r="G288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-30.397499999999994</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288">
+        <f t="shared" si="9"/>
+        <v>-30.290500000000002</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>44880</v>
       </c>
@@ -37776,11 +38924,15 @@
         <v>93.59</v>
       </c>
       <c r="G289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-30.462500000000006</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H289">
+        <f t="shared" si="9"/>
+        <v>-30.204500000000007</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>44879</v>
       </c>
@@ -37800,11 +38952,15 @@
         <v>95.04</v>
       </c>
       <c r="G290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-30.337500000000006</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H290">
+        <f t="shared" si="9"/>
+        <v>-29.960500000000003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>44876</v>
       </c>
@@ -37824,11 +38980,15 @@
         <v>96.2</v>
       </c>
       <c r="G291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-30.072500000000005</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H291">
+        <f t="shared" si="9"/>
+        <v>-29.450499999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>44875</v>
       </c>
@@ -37848,11 +39008,15 @@
         <v>94</v>
       </c>
       <c r="G292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-30.182500000000005</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292">
+        <f t="shared" si="9"/>
+        <v>-28.9115</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>44874</v>
       </c>
@@ -37872,11 +39036,15 @@
         <v>94.04</v>
       </c>
       <c r="G293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-29.967500000000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293">
+        <f t="shared" si="9"/>
+        <v>-28.390499999999996</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>44873</v>
       </c>
@@ -37896,11 +39064,15 @@
         <v>97.26</v>
       </c>
       <c r="G294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-29.242500000000007</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H294">
+        <f t="shared" si="9"/>
+        <v>-27.798500000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>44872</v>
       </c>
@@ -37920,11 +39092,15 @@
         <v>99.53</v>
       </c>
       <c r="G295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.787499999999994</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H295">
+        <f t="shared" si="9"/>
+        <v>-27.388500000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>44869</v>
       </c>
@@ -37944,11 +39120,15 @@
         <v>97.72</v>
       </c>
       <c r="G296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.377499999999998</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H296">
+        <f t="shared" si="9"/>
+        <v>-27.404500000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>44868</v>
       </c>
@@ -37968,11 +39148,15 @@
         <v>95.29</v>
       </c>
       <c r="G297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.577500000000001</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H297">
+        <f t="shared" si="9"/>
+        <v>-27.462499999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>44867</v>
       </c>
@@ -37992,11 +39176,15 @@
         <v>96.45</v>
       </c>
       <c r="G298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.007500000000007</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298">
+        <f t="shared" si="9"/>
+        <v>-27.554499999999997</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>44866</v>
       </c>
@@ -38016,11 +39204,15 @@
         <v>94.65</v>
       </c>
       <c r="G299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.192499999999995</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H299">
+        <f t="shared" si="9"/>
+        <v>-27.728499999999997</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>44865</v>
       </c>
@@ -38040,11 +39232,15 @@
         <v>94.76</v>
       </c>
       <c r="G300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.867500000000007</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300">
+        <f t="shared" si="9"/>
+        <v>-27.957999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>44862</v>
       </c>
@@ -38064,11 +39260,15 @@
         <v>95.66</v>
       </c>
       <c r="G301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.66749999999999</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H301">
+        <f t="shared" si="9"/>
+        <v>-28.087</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>44861</v>
       </c>
@@ -38088,11 +39288,15 @@
         <v>97.07</v>
       </c>
       <c r="G302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-28.037499999999994</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302">
+        <f t="shared" si="9"/>
+        <v>-28.298999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>44860</v>
       </c>
@@ -38112,11 +39316,15 @@
         <v>95.96</v>
       </c>
       <c r="G303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.877499999999998</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H303">
+        <f t="shared" si="9"/>
+        <v>-28.47</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>44859</v>
       </c>
@@ -38136,11 +39344,15 @@
         <v>93.51</v>
       </c>
       <c r="G304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-28.340000000000003</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H304">
+        <f t="shared" si="9"/>
+        <v>-28.671999999999997</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>44858</v>
       </c>
@@ -38160,11 +39372,15 @@
         <v>93.31</v>
       </c>
       <c r="G305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-28.512500000000003</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H305">
+        <f t="shared" si="9"/>
+        <v>-28.72</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>44855</v>
       </c>
@@ -38184,11 +39400,15 @@
         <v>92.99</v>
       </c>
       <c r="G306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-28.727499999999992</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H306">
+        <f t="shared" si="9"/>
+        <v>-28.593</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>44854</v>
       </c>
@@ -38208,11 +39428,15 @@
         <v>93.62</v>
       </c>
       <c r="G307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-28.892499999999998</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H307">
+        <f t="shared" si="9"/>
+        <v>-28.259000000000004</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>44853</v>
       </c>
@@ -38232,11 +39456,15 @@
         <v>90.77</v>
       </c>
       <c r="G308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-28.887499999999996</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H308">
+        <f t="shared" si="9"/>
+        <v>-27.839000000000006</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>44852</v>
       </c>
@@ -38256,11 +39484,15 @@
         <v>89.15</v>
       </c>
       <c r="G309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-28.580000000000005</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H309">
+        <f t="shared" si="9"/>
+        <v>-27.264500000000005</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>44851</v>
       </c>
@@ -38280,11 +39512,15 @@
         <v>91.86</v>
       </c>
       <c r="G310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.877499999999998</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H310">
+        <f t="shared" si="9"/>
+        <v>-26.673500000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>44848</v>
       </c>
@@ -38304,11 +39540,15 @@
         <v>92.45</v>
       </c>
       <c r="G311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-27.057500000000005</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H311">
+        <f t="shared" si="9"/>
+        <v>-26.187999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>44847</v>
       </c>
@@ -38328,11 +39568,15 @@
         <v>93.93</v>
       </c>
       <c r="G312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-26.792500000000018</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H312">
+        <f t="shared" si="9"/>
+        <v>-25.839499999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>44846</v>
       </c>
@@ -38352,11 +39596,15 @@
         <v>92.82</v>
       </c>
       <c r="G313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-26.014999999999986</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H313">
+        <f t="shared" si="9"/>
+        <v>-25.514999999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>44845</v>
       </c>
@@ -38376,11 +39624,15 @@
         <v>94.38</v>
       </c>
       <c r="G314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-25.625</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H314">
+        <f t="shared" si="9"/>
+        <v>-25.380999999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>44844</v>
       </c>
@@ -38400,11 +39652,15 @@
         <v>97.44</v>
       </c>
       <c r="G315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-25.449999999999989</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H315">
+        <f t="shared" si="9"/>
+        <v>-25.288999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>44841</v>
       </c>
@@ -38424,11 +39680,15 @@
         <v>97.76</v>
       </c>
       <c r="G316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-25.315000000000012</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H316">
+        <f t="shared" si="9"/>
+        <v>-25.189500000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>44840</v>
       </c>
@@ -38448,11 +39708,15 @@
         <v>94.54</v>
       </c>
       <c r="G317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-25.17</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H317">
+        <f t="shared" si="9"/>
+        <v>-25.23</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>44839</v>
       </c>
@@ -38472,11 +39736,15 @@
         <v>93.71</v>
       </c>
       <c r="G318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-25.344999999999985</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H318">
+        <f t="shared" si="9"/>
+        <v>-25.225999999999996</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>44838</v>
       </c>
@@ -38496,11 +39764,15 @@
         <v>91.89</v>
       </c>
       <c r="G319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-25.165000000000006</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H319">
+        <f t="shared" si="9"/>
+        <v>-25.254000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>44837</v>
       </c>
@@ -38520,11 +39792,15 @@
         <v>88.5</v>
       </c>
       <c r="G320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-24.952500000000001</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H320">
+        <f t="shared" si="9"/>
+        <v>-25.332999999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>44834</v>
       </c>
@@ -38544,11 +39820,15 @@
         <v>87.4</v>
       </c>
       <c r="G321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-25.517500000000005</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H321">
+        <f t="shared" si="9"/>
+        <v>-25.543500000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>44833</v>
       </c>
@@ -38568,11 +39848,15 @@
         <v>88.82</v>
       </c>
       <c r="G322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-25.149999999999991</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H322">
+        <f t="shared" si="9"/>
+        <v>-25.701999999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>44832</v>
       </c>
@@ -38592,11 +39876,15 @@
         <v>88.22</v>
       </c>
       <c r="G323">
-        <f t="shared" ref="G323:G386" si="5">AVERAGE(C323:D323)-F323</f>
+        <f t="shared" ref="G323:G386" si="10">AVERAGE(C323:D323)-F323</f>
         <v>-25.484999999999999</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H323">
+        <f t="shared" ref="H323:H386" si="11">AVERAGE(G323:G327)</f>
+        <v>-25.939999999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>44831</v>
       </c>
@@ -38616,11 +39904,15 @@
         <v>86.46</v>
       </c>
       <c r="G324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-25.559999999999995</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H324">
+        <f t="shared" si="11"/>
+        <v>-26.111000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>44830</v>
       </c>
@@ -38640,11 +39932,15 @@
         <v>85.74</v>
       </c>
       <c r="G325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-26.004999999999995</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H325">
+        <f t="shared" si="11"/>
+        <v>-26.224499999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>44827</v>
       </c>
@@ -38664,11 +39960,15 @@
         <v>86.81</v>
       </c>
       <c r="G326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-26.310000000000002</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H326">
+        <f t="shared" si="11"/>
+        <v>-26.175000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>44826</v>
       </c>
@@ -38688,11 +39988,15 @@
         <v>90.73</v>
       </c>
       <c r="G327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-26.340000000000003</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H327">
+        <f t="shared" si="11"/>
+        <v>-26.119499999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>44825</v>
       </c>
@@ -38712,11 +40016,15 @@
         <v>89.62</v>
       </c>
       <c r="G328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-26.340000000000003</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H328">
+        <f t="shared" si="11"/>
+        <v>-26.029999999999994</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>44824</v>
       </c>
@@ -38736,11 +40044,15 @@
         <v>90.63</v>
       </c>
       <c r="G329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-26.127499999999998</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H329">
+        <f t="shared" si="11"/>
+        <v>-25.865499999999997</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>44820</v>
       </c>
@@ -38760,11 +40072,15 @@
         <v>92.25</v>
       </c>
       <c r="G330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-25.757499999999993</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H330">
+        <f t="shared" si="11"/>
+        <v>-25.659500000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>44819</v>
       </c>
@@ -38784,11 +40100,15 @@
         <v>90.81</v>
       </c>
       <c r="G331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-26.032499999999999</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H331">
+        <f t="shared" si="11"/>
+        <v>-25.444000000000003</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>44818</v>
       </c>
@@ -38808,11 +40128,15 @@
         <v>94.51</v>
       </c>
       <c r="G332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-25.892499999999998</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H332">
+        <f t="shared" si="11"/>
+        <v>-25.189500000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>44817</v>
       </c>
@@ -38832,11 +40156,15 @@
         <v>92.84</v>
       </c>
       <c r="G333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-25.517500000000013</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H333">
+        <f t="shared" si="11"/>
+        <v>-24.940000000000005</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>44816</v>
       </c>
@@ -38856,11 +40184,15 @@
         <v>94.52</v>
       </c>
       <c r="G334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-25.097499999999997</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H334">
+        <f t="shared" si="11"/>
+        <v>-24.662500000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>44813</v>
       </c>
@@ -38880,11 +40212,15 @@
         <v>91.59</v>
       </c>
       <c r="G335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24.680000000000007</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H335">
+        <f t="shared" si="11"/>
+        <v>-24.321000000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>44812</v>
       </c>
@@ -38904,11 +40240,15 @@
         <v>89.01</v>
       </c>
       <c r="G336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24.760000000000005</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H336">
+        <f t="shared" si="11"/>
+        <v>-24.002000000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>44811</v>
       </c>
@@ -38928,11 +40268,15 @@
         <v>89.61</v>
       </c>
       <c r="G337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24.644999999999996</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H337">
+        <f t="shared" si="11"/>
+        <v>-23.649000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>44810</v>
       </c>
@@ -38952,11 +40296,15 @@
         <v>93.34</v>
       </c>
       <c r="G338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24.129999999999995</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H338">
+        <f t="shared" si="11"/>
+        <v>-23.29</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>44809</v>
       </c>
@@ -38976,11 +40324,15 @@
         <v>95.53</v>
       </c>
       <c r="G339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-23.39</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H339">
+        <f t="shared" si="11"/>
+        <v>-22.990000000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>44806</v>
       </c>
@@ -39000,11 +40352,15 @@
         <v>94.28</v>
       </c>
       <c r="G340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-23.085000000000008</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H340">
+        <f t="shared" si="11"/>
+        <v>-22.663</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>44805</v>
       </c>
@@ -39024,11 +40380,15 @@
         <v>92.82</v>
       </c>
       <c r="G341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-22.995000000000005</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H341">
+        <f t="shared" si="11"/>
+        <v>-22.432999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>44804</v>
       </c>
@@ -39048,11 +40408,15 @@
         <v>97.06</v>
       </c>
       <c r="G342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-22.849999999999994</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H342">
+        <f t="shared" si="11"/>
+        <v>-22.274999999999995</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>44803</v>
       </c>
@@ -39072,11 +40436,15 @@
         <v>100.13</v>
       </c>
       <c r="G343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-22.629999999999995</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H343">
+        <f t="shared" si="11"/>
+        <v>-22.218999999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>44799</v>
       </c>
@@ -39096,11 +40464,15 @@
         <v>99.72</v>
       </c>
       <c r="G344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-21.754999999999995</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H344">
+        <f t="shared" si="11"/>
+        <v>-22.111999999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>44798</v>
       </c>
@@ -39120,11 +40492,15 @@
         <v>100.52</v>
       </c>
       <c r="G345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-21.934999999999988</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H345">
+        <f t="shared" si="11"/>
+        <v>-22.047999999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>44797</v>
       </c>
@@ -39144,11 +40520,15 @@
         <v>99.69</v>
       </c>
       <c r="G346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-22.204999999999998</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H346">
+        <f t="shared" si="11"/>
+        <v>-21.999000000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>44796</v>
       </c>
@@ -39168,11 +40548,15 @@
         <v>99.65</v>
       </c>
       <c r="G347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-22.570000000000007</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H347">
+        <f t="shared" si="11"/>
+        <v>-21.928000000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>44795</v>
       </c>
@@ -39192,11 +40576,15 @@
         <v>94.62</v>
       </c>
       <c r="G348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-22.094999999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H348">
+        <f t="shared" si="11"/>
+        <v>-21.714999999999996</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>44792</v>
       </c>
@@ -39216,11 +40604,15 @@
         <v>96.86</v>
       </c>
       <c r="G349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-21.435000000000002</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H349">
+        <f t="shared" si="11"/>
+        <v>-21.834499999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>44791</v>
       </c>
@@ -39240,11 +40632,15 @@
         <v>96.33</v>
       </c>
       <c r="G350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-21.689999999999998</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H350">
+        <f t="shared" si="11"/>
+        <v>-22.404499999999995</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>44790</v>
       </c>
@@ -39264,11 +40660,15 @@
         <v>93.15</v>
       </c>
       <c r="G351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-21.849999999999994</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H351">
+        <f t="shared" si="11"/>
+        <v>-23.405499999999996</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>44789</v>
       </c>
@@ -39288,11 +40688,15 @@
         <v>93.34</v>
       </c>
       <c r="G352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-21.504999999999995</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H352">
+        <f t="shared" si="11"/>
+        <v>-24.9725</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>44788</v>
       </c>
@@ -39312,11 +40716,15 @@
         <v>94.49</v>
       </c>
       <c r="G353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-22.692499999999995</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H353">
+        <f t="shared" si="11"/>
+        <v>-26.866499999999995</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>44785</v>
       </c>
@@ -39336,11 +40744,15 @@
         <v>98.03</v>
       </c>
       <c r="G354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24.284999999999997</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H354">
+        <f t="shared" si="11"/>
+        <v>-28.822000000000003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>44784</v>
       </c>
@@ -39360,11 +40772,15 @@
         <v>99.06</v>
       </c>
       <c r="G355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-26.694999999999993</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H355">
+        <f t="shared" si="11"/>
+        <v>-30.643999999999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>44783</v>
       </c>
@@ -39384,11 +40800,15 @@
         <v>95.79</v>
       </c>
       <c r="G356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-29.685000000000016</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H356">
+        <f t="shared" si="11"/>
+        <v>-32.286000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>44782</v>
       </c>
@@ -39408,11 +40828,15 @@
         <v>97.5</v>
       </c>
       <c r="G357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-30.974999999999994</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H357">
+        <f t="shared" si="11"/>
+        <v>-33.495000000000005</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>44781</v>
       </c>
@@ -39432,11 +40856,15 @@
         <v>96.75</v>
       </c>
       <c r="G358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-32.47</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H358">
+        <f t="shared" si="11"/>
+        <v>-34.452500000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>44778</v>
       </c>
@@ -39456,11 +40884,15 @@
         <v>96.06</v>
       </c>
       <c r="G359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-33.395000000000003</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H359">
+        <f t="shared" si="11"/>
+        <v>-34.989000000000004</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>44777</v>
       </c>
@@ -39480,11 +40912,15 @@
         <v>94.1</v>
       </c>
       <c r="G360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-34.904999999999994</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H360">
+        <f t="shared" si="11"/>
+        <v>-36.188499999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>44776</v>
       </c>
@@ -39504,11 +40940,15 @@
         <v>98.73</v>
       </c>
       <c r="G361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-35.730000000000004</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H361">
+        <f t="shared" si="11"/>
+        <v>-37.00500000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>44775</v>
       </c>
@@ -39528,11 +40968,15 @@
         <v>100.72</v>
       </c>
       <c r="G362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-35.762500000000003</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H362">
+        <f t="shared" si="11"/>
+        <v>-37.706500000000005</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>44774</v>
       </c>
@@ -39552,11 +40996,15 @@
         <v>100.01</v>
       </c>
       <c r="G363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-35.152500000000003</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H363">
+        <f t="shared" si="11"/>
+        <v>-38.403499999999994</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>44771</v>
       </c>
@@ -39576,11 +41024,15 @@
         <v>111.11</v>
       </c>
       <c r="G364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-39.392499999999998</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H364">
+        <f t="shared" si="11"/>
+        <v>-39.278000000000006</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>44770</v>
       </c>
@@ -39600,11 +41052,15 @@
         <v>107.87</v>
       </c>
       <c r="G365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-38.987500000000011</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H365">
+        <f t="shared" si="11"/>
+        <v>-39.102499999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>44769</v>
       </c>
@@ -39624,11 +41080,15 @@
         <v>106.69</v>
       </c>
       <c r="G366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-39.237499999999997</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H366">
+        <f t="shared" si="11"/>
+        <v>-38.783999999999992</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>44768</v>
       </c>
@@ -39648,11 +41108,15 @@
         <v>105.46</v>
       </c>
       <c r="G367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-39.247499999999988</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H367">
+        <f t="shared" si="11"/>
+        <v>-38.339500000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>44767</v>
       </c>
@@ -39672,11 +41136,15 @@
         <v>105.01</v>
       </c>
       <c r="G368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-39.525000000000006</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H368">
+        <f t="shared" si="11"/>
+        <v>-37.724499999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>44764</v>
       </c>
@@ -39696,11 +41164,15 @@
         <v>105.46</v>
       </c>
       <c r="G369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-38.515000000000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H369">
+        <f t="shared" si="11"/>
+        <v>-36.822000000000003</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>44763</v>
       </c>
@@ -39720,11 +41192,15 @@
         <v>104.08</v>
       </c>
       <c r="G370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-37.394999999999996</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H370">
+        <f t="shared" si="11"/>
+        <v>-35.923500000000004</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>44762</v>
       </c>
@@ -39744,11 +41220,15 @@
         <v>106.87</v>
       </c>
       <c r="G371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-37.015000000000015</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H371">
+        <f t="shared" si="11"/>
+        <v>-35.205500000000008</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>44761</v>
       </c>
@@ -39768,11 +41248,15 @@
         <v>105.81</v>
       </c>
       <c r="G372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-36.172499999999999</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H372">
+        <f t="shared" si="11"/>
+        <v>-34.6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>44760</v>
       </c>
@@ -39792,11 +41276,15 @@
         <v>106.48</v>
       </c>
       <c r="G373">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-35.012500000000003</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H373">
+        <f t="shared" si="11"/>
+        <v>-34.172000000000004</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>44757</v>
       </c>
@@ -39816,11 +41304,15 @@
         <v>101.89</v>
       </c>
       <c r="G374">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-34.022499999999994</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H374">
+        <f t="shared" si="11"/>
+        <v>-33.962000000000003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>44756</v>
       </c>
@@ -39840,11 +41332,15 @@
         <v>97.22</v>
       </c>
       <c r="G375">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-33.805</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H375">
+        <f t="shared" si="11"/>
+        <v>-33.804000000000009</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>44755</v>
       </c>
@@ -39864,11 +41360,15 @@
         <v>100.05</v>
       </c>
       <c r="G376">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-33.987499999999997</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H376">
+        <f t="shared" si="11"/>
+        <v>-33.64650000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>44754</v>
       </c>
@@ -39888,11 +41388,15 @@
         <v>100.51</v>
       </c>
       <c r="G377">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-34.032500000000013</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H377">
+        <f t="shared" si="11"/>
+        <v>-33.358500000000006</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>44753</v>
       </c>
@@ -39912,11 +41416,15 @@
         <v>106.63</v>
       </c>
       <c r="G378">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-33.962500000000006</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H378">
+        <f t="shared" si="11"/>
+        <v>-32.945500000000003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>44750</v>
       </c>
@@ -39936,11 +41444,15 @@
         <v>107.06</v>
       </c>
       <c r="G379">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-33.232500000000002</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H379">
+        <f t="shared" si="11"/>
+        <v>-32.388500000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>44749</v>
       </c>
@@ -39960,11 +41472,15 @@
         <v>105.68</v>
       </c>
       <c r="G380">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-33.017500000000013</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H380">
+        <f t="shared" si="11"/>
+        <v>-32.028500000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>44748</v>
       </c>
@@ -39984,11 +41500,15 @@
         <v>100.52</v>
       </c>
       <c r="G381">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-32.547499999999999</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H381">
+        <f t="shared" si="11"/>
+        <v>-32.649500000000003</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>44747</v>
       </c>
@@ -40008,11 +41528,15 @@
         <v>103.06</v>
       </c>
       <c r="G382">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-31.967500000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H382">
+        <f t="shared" si="11"/>
+        <v>-33.349499999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>44746</v>
       </c>
@@ -40032,11 +41556,15 @@
         <v>113.89</v>
       </c>
       <c r="G383">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-31.177499999999995</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H383">
+        <f t="shared" si="11"/>
+        <v>-34.276500000000006</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>44743</v>
       </c>
@@ -40056,11 +41584,15 @@
         <v>111.12</v>
       </c>
       <c r="G384">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-31.432500000000005</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H384">
+        <f t="shared" si="11"/>
+        <v>-35.341499999999996</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>44742</v>
       </c>
@@ -40080,11 +41612,15 @@
         <v>114.45</v>
       </c>
       <c r="G385">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-36.122500000000016</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H385">
+        <f t="shared" si="11"/>
+        <v>-36.320499999999996</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>44741</v>
       </c>
@@ -40104,11 +41640,15 @@
         <v>118.46</v>
       </c>
       <c r="G386">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-36.047499999999999</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H386">
+        <f t="shared" si="11"/>
+        <v>-36.387999999999991</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>44740</v>
       </c>
@@ -40128,11 +41668,15 @@
         <v>117.38</v>
       </c>
       <c r="G387">
-        <f t="shared" ref="G387:G450" si="6">AVERAGE(C387:D387)-F387</f>
+        <f t="shared" ref="G387:G450" si="12">AVERAGE(C387:D387)-F387</f>
         <v>-36.602499999999992</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H387">
+        <f t="shared" ref="H387:H450" si="13">AVERAGE(G387:G391)</f>
+        <v>-36.513500000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>44739</v>
       </c>
@@ -40152,11 +41696,15 @@
         <v>114.96</v>
       </c>
       <c r="G388">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.502499999999984</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H388">
+        <f t="shared" si="13"/>
+        <v>-36.50500000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>44736</v>
       </c>
@@ -40176,11 +41724,15 @@
         <v>114.24</v>
       </c>
       <c r="G389">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.327500000000001</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H389">
+        <f t="shared" si="13"/>
+        <v>-36.482000000000006</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>44735</v>
       </c>
@@ -40200,11 +41752,15 @@
         <v>111.63</v>
       </c>
       <c r="G390">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.460000000000008</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H390">
+        <f t="shared" si="13"/>
+        <v>-36.340000000000011</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>44734</v>
       </c>
@@ -40224,11 +41780,15 @@
         <v>111.12</v>
       </c>
       <c r="G391">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.675000000000011</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H391">
+        <f t="shared" si="13"/>
+        <v>-36.154500000000006</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>44733</v>
       </c>
@@ -40248,11 +41808,15 @@
         <v>114.98</v>
       </c>
       <c r="G392">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.560000000000016</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H392">
+        <f t="shared" si="13"/>
+        <v>-35.778500000000008</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>44732</v>
       </c>
@@ -40272,11 +41836,15 @@
         <v>113.97</v>
       </c>
       <c r="G393">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.387500000000003</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H393">
+        <f t="shared" si="13"/>
+        <v>-35.287999999999997</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>44729</v>
       </c>
@@ -40296,11 +41864,15 @@
         <v>114.42</v>
       </c>
       <c r="G394">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-35.617499999999993</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H394">
+        <f t="shared" si="13"/>
+        <v>-34.869000000000007</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>44728</v>
       </c>
@@ -40320,11 +41892,15 @@
         <v>117.95</v>
       </c>
       <c r="G395">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-35.532500000000013</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H395">
+        <f t="shared" si="13"/>
+        <v>-34.622</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>44727</v>
       </c>
@@ -40344,11 +41920,15 @@
         <v>121.24</v>
       </c>
       <c r="G396">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.795000000000002</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H396">
+        <f t="shared" si="13"/>
+        <v>-34.423500000000004</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>44726</v>
       </c>
@@ -40368,11 +41948,15 @@
         <v>124.73</v>
       </c>
       <c r="G397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.107500000000002</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H397">
+        <f t="shared" si="13"/>
+        <v>-34.365499999999997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>44725</v>
       </c>
@@ -40392,11 +41976,15 @@
         <v>120.99</v>
       </c>
       <c r="G398">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.292500000000004</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H398">
+        <f t="shared" si="13"/>
+        <v>-34.36</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>44722</v>
       </c>
@@ -40416,11 +42004,15 @@
         <v>121.32</v>
       </c>
       <c r="G399">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.382499999999993</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H399">
+        <f t="shared" si="13"/>
+        <v>-34.333500000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>44721</v>
       </c>
@@ -40440,11 +42032,15 @@
         <v>123.86</v>
       </c>
       <c r="G400">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.540000000000006</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H400">
+        <f t="shared" si="13"/>
+        <v>-34.111000000000004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>44720</v>
       </c>
@@ -40464,11 +42060,15 @@
         <v>122.72</v>
       </c>
       <c r="G401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.504999999999995</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H401">
+        <f t="shared" si="13"/>
+        <v>-34.6265</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>44719</v>
       </c>
@@ -40488,11 +42088,15 @@
         <v>120.18</v>
       </c>
       <c r="G402">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.080000000000013</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H402">
+        <f t="shared" si="13"/>
+        <v>-35.136000000000003</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>44718</v>
       </c>
@@ -40512,11 +42116,15 @@
         <v>119.39</v>
       </c>
       <c r="G403">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.159999999999997</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H403">
+        <f t="shared" si="13"/>
+        <v>-35.636499999999998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>44713</v>
       </c>
@@ -40536,11 +42144,15 @@
         <v>117.36</v>
       </c>
       <c r="G404">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-33.269999999999996</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H404">
+        <f t="shared" si="13"/>
+        <v>-36.081500000000005</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>44712</v>
       </c>
@@ -40560,11 +42172,15 @@
         <v>122.12</v>
       </c>
       <c r="G405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-37.117500000000007</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H405">
+        <f t="shared" si="13"/>
+        <v>-36.689499999999995</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>44711</v>
       </c>
@@ -40584,11 +42200,15 @@
         <v>120.63</v>
       </c>
       <c r="G406">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-37.052500000000009</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H406">
+        <f t="shared" si="13"/>
+        <v>-36.495999999999995</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>44708</v>
       </c>
@@ -40608,11 +42228,15 @@
         <v>118.16</v>
       </c>
       <c r="G407">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.582499999999996</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H407">
+        <f t="shared" si="13"/>
+        <v>-36.304000000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>44707</v>
       </c>
@@ -40632,11 +42256,15 @@
         <v>117.01</v>
       </c>
       <c r="G408">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.385000000000005</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H408">
+        <f t="shared" si="13"/>
+        <v>-36.207999999999998</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>44706</v>
       </c>
@@ -40656,11 +42284,15 @@
         <v>114.02</v>
       </c>
       <c r="G409">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.309999999999988</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H409">
+        <f t="shared" si="13"/>
+        <v>-36.200499999999991</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>44705</v>
       </c>
@@ -40680,11 +42312,15 @@
         <v>113.9</v>
       </c>
       <c r="G410">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.150000000000006</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H410">
+        <f t="shared" si="13"/>
+        <v>-36.225000000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>44704</v>
       </c>
@@ -40704,11 +42340,15 @@
         <v>113.57</v>
       </c>
       <c r="G411">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.092500000000001</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H411">
+        <f t="shared" si="13"/>
+        <v>-36.200999999999993</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>44701</v>
       </c>
@@ -40728,11 +42368,15 @@
         <v>112.44</v>
       </c>
       <c r="G412">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.102499999999992</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H412">
+        <f t="shared" si="13"/>
+        <v>-36.274499999999996</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>44700</v>
       </c>
@@ -40752,11 +42396,15 @@
         <v>110.21</v>
       </c>
       <c r="G413">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.347499999999982</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H413">
+        <f t="shared" si="13"/>
+        <v>-36.378499999999995</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>44699</v>
       </c>
@@ -40776,11 +42424,15 @@
         <v>110.2</v>
       </c>
       <c r="G414">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.432500000000005</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H414">
+        <f t="shared" si="13"/>
+        <v>-36.459500000000006</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>44698</v>
       </c>
@@ -40800,11 +42452,15 @@
         <v>115.14</v>
       </c>
       <c r="G415">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.03</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H415">
+        <f t="shared" si="13"/>
+        <v>-36.507000000000005</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>44697</v>
       </c>
@@ -40824,11 +42480,15 @@
         <v>112.38</v>
       </c>
       <c r="G416">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.460000000000008</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H416">
+        <f t="shared" si="13"/>
+        <v>-36.729999999999997</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>44694</v>
       </c>
@@ -40848,11 +42508,15 @@
         <v>110.83</v>
       </c>
       <c r="G417">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.622499999999988</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H417">
+        <f t="shared" si="13"/>
+        <v>-36.809000000000005</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>44693</v>
       </c>
@@ -40872,11 +42536,15 @@
         <v>108.37</v>
       </c>
       <c r="G418">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.752499999999998</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H418">
+        <f t="shared" si="13"/>
+        <v>-36.717500000000008</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>44692</v>
       </c>
@@ -40896,11 +42564,15 @@
         <v>107.23</v>
       </c>
       <c r="G419">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.67</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H419">
+        <f t="shared" si="13"/>
+        <v>-36.615000000000002</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>44691</v>
       </c>
@@ -40920,11 +42592,15 @@
         <v>104.08</v>
       </c>
       <c r="G420">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-37.144999999999996</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H420">
+        <f t="shared" si="13"/>
+        <v>-36.672499999999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>44690</v>
       </c>
@@ -40944,11 +42620,15 @@
         <v>106.59</v>
       </c>
       <c r="G421">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.855000000000004</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H421">
+        <f t="shared" si="13"/>
+        <v>-36.749500000000005</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>44687</v>
       </c>
@@ -40968,11 +42648,15 @@
         <v>113.39</v>
       </c>
       <c r="G422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.165000000000006</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H422">
+        <f t="shared" si="13"/>
+        <v>-37.008500000000005</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>44686</v>
       </c>
@@ -40992,11 +42676,15 @@
         <v>111.37</v>
       </c>
       <c r="G423">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.240000000000009</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H423">
+        <f t="shared" si="13"/>
+        <v>-37.349499999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>44685</v>
       </c>
@@ -41016,11 +42704,15 @@
         <v>108.7</v>
       </c>
       <c r="G424">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-36.957499999999996</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H424">
+        <f t="shared" si="13"/>
+        <v>-37.718499999999992</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>44684</v>
       </c>
@@ -41040,11 +42732,15 @@
         <v>106.47</v>
       </c>
       <c r="G425">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-37.53</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H425">
+        <f t="shared" si="13"/>
+        <v>-38.140499999999996</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>44680</v>
       </c>
@@ -41064,11 +42760,15 @@
         <v>109.36</v>
       </c>
       <c r="G426">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-38.149999999999991</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H426">
+        <f t="shared" si="13"/>
+        <v>-38.533999999999992</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>44679</v>
       </c>
@@ -41088,11 +42788,15 @@
         <v>106.83</v>
       </c>
       <c r="G427">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-37.86999999999999</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H427">
+        <f t="shared" si="13"/>
+        <v>-38.726999999999997</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>44678</v>
       </c>
@@ -41112,11 +42816,15 @@
         <v>104.46</v>
       </c>
       <c r="G428">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-38.084999999999994</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H428">
+        <f t="shared" si="13"/>
+        <v>-39.070499999999996</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>44677</v>
       </c>
@@ -41136,11 +42844,15 @@
         <v>104.13</v>
       </c>
       <c r="G429">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.067499999999995</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H429">
+        <f t="shared" si="13"/>
+        <v>-39.427499999999995</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>44676</v>
       </c>
@@ -41160,11 +42872,15 @@
         <v>99.83</v>
       </c>
       <c r="G430">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.497500000000002</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H430">
+        <f t="shared" si="13"/>
+        <v>-39.606499999999997</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>44673</v>
       </c>
@@ -41184,11 +42900,15 @@
         <v>106.88</v>
       </c>
       <c r="G431">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.114999999999995</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H431">
+        <f t="shared" si="13"/>
+        <v>-39.616999999999997</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>44672</v>
       </c>
@@ -41208,11 +42928,15 @@
         <v>108.05</v>
       </c>
       <c r="G432">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.587499999999991</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H432">
+        <f t="shared" si="13"/>
+        <v>-39.582499999999996</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>44671</v>
       </c>
@@ -41232,11 +42956,15 @@
         <v>107.24</v>
       </c>
       <c r="G433">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.86999999999999</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H433">
+        <f t="shared" si="13"/>
+        <v>-39.511000000000003</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>44670</v>
       </c>
@@ -41256,11 +42984,15 @@
         <v>107.3</v>
       </c>
       <c r="G434">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.962499999999991</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H434">
+        <f t="shared" si="13"/>
+        <v>-39.418500000000002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>44665</v>
       </c>
@@ -41280,11 +43012,15 @@
         <v>107.51</v>
       </c>
       <c r="G435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.549999999999997</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H435">
+        <f t="shared" si="13"/>
+        <v>-39.314</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>44664</v>
       </c>
@@ -41304,11 +43040,15 @@
         <v>107.01</v>
       </c>
       <c r="G436">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-38.94250000000001</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H436">
+        <f t="shared" si="13"/>
+        <v>-39.254000000000005</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>44663</v>
       </c>
@@ -41328,11 +43068,15 @@
         <v>105.54</v>
       </c>
       <c r="G437">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.230000000000004</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H437">
+        <f t="shared" si="13"/>
+        <v>-39.177999999999997</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>44662</v>
       </c>
@@ -41352,11 +43096,15 @@
         <v>99.24</v>
       </c>
       <c r="G438">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.407499999999999</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H438">
+        <f t="shared" si="13"/>
+        <v>-38.975499999999997</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>44659</v>
       </c>
@@ -41376,11 +43124,15 @@
         <v>101.49</v>
       </c>
       <c r="G439">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.44</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H439">
+        <f t="shared" si="13"/>
+        <v>-38.693999999999996</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>44658</v>
       </c>
@@ -41400,11 +43152,15 @@
         <v>99.05</v>
       </c>
       <c r="G440">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-39.25</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H440">
+        <f t="shared" si="13"/>
+        <v>-37.576999999999998</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>44657</v>
       </c>
@@ -41424,11 +43180,15 @@
         <v>104.49</v>
       </c>
       <c r="G441">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-38.562499999999986</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H441">
+        <f t="shared" si="13"/>
+        <v>-36.649000000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>44656</v>
       </c>
@@ -41448,11 +43208,15 @@
         <v>107.22</v>
       </c>
       <c r="G442">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-38.217500000000001</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H442">
+        <f t="shared" si="13"/>
+        <v>-35.944000000000003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>44655</v>
       </c>
@@ -41472,11 +43236,15 @@
         <v>108.14</v>
       </c>
       <c r="G443">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-38</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H443">
+        <f t="shared" si="13"/>
+        <v>-35.329500000000003</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>44652</v>
       </c>
@@ -41496,11 +43264,15 @@
         <v>106.01</v>
       </c>
       <c r="G444">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-33.855000000000004</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H444">
+        <f t="shared" si="13"/>
+        <v>-34.654000000000003</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>44651</v>
       </c>
@@ -41520,11 +43292,15 @@
         <v>108.56</v>
       </c>
       <c r="G445">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.610000000000014</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H445">
+        <f t="shared" si="13"/>
+        <v>-34.853000000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>44650</v>
       </c>
@@ -41544,11 +43320,15 @@
         <v>113.9</v>
       </c>
       <c r="G446">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-35.037500000000009</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H446">
+        <f t="shared" si="13"/>
+        <v>-34.825499999999991</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>44649</v>
       </c>
@@ -41568,11 +43348,15 @@
         <v>110.07</v>
       </c>
       <c r="G447">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-35.144999999999982</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H447">
+        <f t="shared" si="13"/>
+        <v>-34.681499999999993</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>44648</v>
       </c>
@@ -41592,11 +43376,15 @@
         <v>114.02</v>
       </c>
       <c r="G448">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.622500000000002</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H448">
+        <f t="shared" si="13"/>
+        <v>-34.450000000000003</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>44645</v>
       </c>
@@ -41616,11 +43404,15 @@
         <v>120.84</v>
       </c>
       <c r="G449">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.849999999999994</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H449">
+        <f t="shared" si="13"/>
+        <v>-34.082499999999996</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>44644</v>
       </c>
@@ -41640,11 +43432,15 @@
         <v>119.8</v>
       </c>
       <c r="G450">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-34.472499999999997</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H450">
+        <f t="shared" si="13"/>
+        <v>-33.570999999999998</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>44643</v>
       </c>
@@ -41664,11 +43460,15 @@
         <v>121.59</v>
       </c>
       <c r="G451">
-        <f t="shared" ref="G451:G508" si="7">AVERAGE(C451:D451)-F451</f>
+        <f t="shared" ref="G451:G508" si="14">AVERAGE(C451:D451)-F451</f>
         <v>-34.317499999999995</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H451">
+        <f t="shared" ref="H451:H508" si="15">AVERAGE(G451:G455)</f>
+        <v>-33.025500000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>44642</v>
       </c>
@@ -41688,11 +43488,15 @@
         <v>114.95</v>
       </c>
       <c r="G452">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-33.987499999999997</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H452">
+        <f t="shared" si="15"/>
+        <v>-32.654000000000003</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>44641</v>
       </c>
@@ -41712,11 +43516,15 @@
         <v>115.28</v>
       </c>
       <c r="G453">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-32.784999999999997</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H453">
+        <f t="shared" si="15"/>
+        <v>-32.42</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>44638</v>
       </c>
@@ -41736,11 +43544,15 @@
         <v>107.19</v>
       </c>
       <c r="G454">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-32.29249999999999</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H454">
+        <f t="shared" si="15"/>
+        <v>-32.399000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>44637</v>
       </c>
@@ -41760,11 +43572,15 @@
         <v>107.09</v>
       </c>
       <c r="G455">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-31.745000000000005</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H455">
+        <f t="shared" si="15"/>
+        <v>-31.836500000000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>44636</v>
       </c>
@@ -41784,11 +43600,15 @@
         <v>99.95</v>
       </c>
       <c r="G456">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-32.460000000000008</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H456">
+        <f t="shared" si="15"/>
+        <v>-31.285500000000003</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>44635</v>
       </c>
@@ -41808,11 +43628,15 @@
         <v>101.75</v>
       </c>
       <c r="G457">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-32.817499999999995</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H457">
+        <f t="shared" si="15"/>
+        <v>-30.575499999999998</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>44634</v>
       </c>
@@ -41832,11 +43656,15 @@
         <v>105.52</v>
       </c>
       <c r="G458">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-32.679999999999993</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H458">
+        <f t="shared" si="15"/>
+        <v>-29.913499999999999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>44631</v>
       </c>
@@ -41856,11 +43684,15 @@
         <v>111.78</v>
       </c>
       <c r="G459">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-29.480000000000004</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H459">
+        <f t="shared" si="15"/>
+        <v>-29.439000000000004</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>44630</v>
       </c>
@@ -41880,11 +43712,15 @@
         <v>113.9</v>
       </c>
       <c r="G460">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-28.990000000000009</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H460">
+        <f t="shared" si="15"/>
+        <v>-29.678500000000007</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>44629</v>
       </c>
@@ -41904,11 +43740,15 @@
         <v>122.78</v>
       </c>
       <c r="G461">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-28.909999999999997</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H461">
+        <f t="shared" si="15"/>
+        <v>-28.845500000000005</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>44628</v>
       </c>
@@ -41928,11 +43768,15 @@
         <v>131.53</v>
       </c>
       <c r="G462">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-29.507500000000007</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H462">
+        <f t="shared" si="15"/>
+        <v>-27.128000000000004</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>44627</v>
       </c>
@@ -41952,11 +43796,15 @@
         <v>124.95</v>
       </c>
       <c r="G463">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-30.307500000000005</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H463">
+        <f t="shared" si="15"/>
+        <v>-25.374000000000002</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>44624</v>
       </c>
@@ -41976,11 +43824,15 @@
         <v>114.78</v>
       </c>
       <c r="G464">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-30.677500000000009</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H464">
+        <f t="shared" si="15"/>
+        <v>-22.781000000000002</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>44623</v>
       </c>
@@ -42000,11 +43852,15 @@
         <v>113.84</v>
       </c>
       <c r="G465">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-24.825000000000003</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H465">
+        <f t="shared" si="15"/>
+        <v>-20.142499999999998</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>44622</v>
       </c>
@@ -42024,11 +43880,15 @@
         <v>110.3</v>
       </c>
       <c r="G466">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-20.322499999999991</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H466">
+        <f t="shared" si="15"/>
+        <v>-17.893999999999998</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>44621</v>
       </c>
@@ -42048,11 +43908,15 @@
         <v>106.37</v>
       </c>
       <c r="G467">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-20.737500000000011</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H467">
+        <f t="shared" si="15"/>
+        <v>-15.376499999999998</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>44620</v>
       </c>
@@ -42072,11 +43936,15 @@
         <v>99.92</v>
       </c>
       <c r="G468">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-17.342500000000001</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H468">
+        <f t="shared" si="15"/>
+        <v>-12.567499999999999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>44617</v>
       </c>
@@ -42096,11 +43964,15 @@
         <v>97.07</v>
       </c>
       <c r="G469">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-17.484999999999985</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H469">
+        <f t="shared" si="15"/>
+        <v>-10.0625</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>44616</v>
       </c>
@@ -42120,11 +43992,15 @@
         <v>104.08</v>
       </c>
       <c r="G470">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-13.582499999999996</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H470">
+        <f t="shared" si="15"/>
+        <v>-7.453000000000003</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>44615</v>
       </c>
@@ -42144,11 +44020,15 @@
         <v>97.48</v>
       </c>
       <c r="G471">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-7.7349999999999994</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H471">
+        <f t="shared" si="15"/>
+        <v>-5.6175000000000042</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>44614</v>
       </c>
@@ -42168,11 +44048,15 @@
         <v>97.11</v>
       </c>
       <c r="G472">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-6.6925000000000097</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H472">
+        <f t="shared" si="15"/>
+        <v>-4.8055000000000039</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>44613</v>
       </c>
@@ -42192,11 +44076,15 @@
         <v>95.26</v>
       </c>
       <c r="G473">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-4.8175000000000097</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H473">
+        <f t="shared" si="15"/>
+        <v>-4.1200000000000019</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>44610</v>
       </c>
@@ -42216,11 +44104,15 @@
         <v>93.34</v>
       </c>
       <c r="G474">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-4.4375</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H474">
+        <f t="shared" si="15"/>
+        <v>-3.9275000000000007</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>44609</v>
       </c>
@@ -42240,11 +44132,15 @@
         <v>93.11</v>
       </c>
       <c r="G475">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-4.4050000000000011</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H475">
+        <f t="shared" si="15"/>
+        <v>-3.7390000000000017</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>44608</v>
       </c>
@@ -42264,11 +44160,15 @@
         <v>95.99</v>
       </c>
       <c r="G476">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-3.6749999999999972</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H476">
+        <f t="shared" si="15"/>
+        <v>-3.4610000000000012</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>44607</v>
       </c>
@@ -42288,11 +44188,15 @@
         <v>93.03</v>
       </c>
       <c r="G477">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-3.2650000000000006</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H477">
+        <f t="shared" si="15"/>
+        <v>-3.2300000000000013</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>44606</v>
       </c>
@@ -42312,11 +44216,15 @@
         <v>95.09</v>
       </c>
       <c r="G478">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-3.855000000000004</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H478">
+        <f t="shared" si="15"/>
+        <v>-2.9385000000000021</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>44603</v>
       </c>
@@ -42336,11 +44244,15 @@
         <v>93.29</v>
       </c>
       <c r="G479">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-3.4950000000000045</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H479">
+        <f t="shared" si="15"/>
+        <v>-2.4534999999999996</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>44602</v>
       </c>
@@ -42360,11 +44272,15 @@
         <v>92.86</v>
       </c>
       <c r="G480">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-3.0150000000000006</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H480">
+        <f t="shared" si="15"/>
+        <v>-2.0414999999999965</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>44601</v>
       </c>
@@ -42384,11 +44300,15 @@
         <v>92.11</v>
       </c>
       <c r="G481">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.519999999999996</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H481">
+        <f t="shared" si="15"/>
+        <v>-1.9249999999999972</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>44600</v>
       </c>
@@ -42408,11 +44328,15 @@
         <v>90.45</v>
       </c>
       <c r="G482">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.8075000000000045</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H482">
+        <f t="shared" si="15"/>
+        <v>-1.9454999999999956</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>44599</v>
       </c>
@@ -42432,11 +44356,15 @@
         <v>93.35</v>
       </c>
       <c r="G483">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.4299999999999926</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H483">
+        <f t="shared" si="15"/>
+        <v>-1.8464999999999918</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>44596</v>
       </c>
@@ -42456,11 +44384,15 @@
         <v>93.55</v>
       </c>
       <c r="G484">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.4349999999999881</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H484">
+        <f t="shared" si="15"/>
+        <v>-2.1809999999999947</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>44595</v>
       </c>
@@ -42480,11 +44412,15 @@
         <v>89.97</v>
       </c>
       <c r="G485">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.4325000000000045</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H485">
+        <f t="shared" si="15"/>
+        <v>-2.3674999999999984</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>44594</v>
       </c>
@@ -42504,11 +44440,15 @@
         <v>88.71</v>
       </c>
       <c r="G486">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.6224999999999881</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H486">
+        <f t="shared" si="15"/>
+        <v>-2.3774999999999951</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>44593</v>
       </c>
@@ -42528,11 +44468,15 @@
         <v>89.74</v>
       </c>
       <c r="G487">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.3124999999999858</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H487">
+        <f t="shared" si="15"/>
+        <v>-2.2814999999999999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>44592</v>
       </c>
@@ -42552,11 +44496,15 @@
         <v>91.09</v>
       </c>
       <c r="G488">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-3.1025000000000063</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H488">
+        <f t="shared" si="15"/>
+        <v>-2.3940000000000028</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>44589</v>
       </c>
@@ -42576,11 +44524,15 @@
         <v>91.18</v>
       </c>
       <c r="G489">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.3675000000000068</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H489">
+        <f t="shared" si="15"/>
+        <v>-2.1680000000000037</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>44588</v>
       </c>
@@ -42600,11 +44552,15 @@
         <v>90.07</v>
       </c>
       <c r="G490">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.4824999999999875</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H490">
+        <f t="shared" si="15"/>
+        <v>-2.1140000000000017</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>44587</v>
       </c>
@@ -42624,11 +44580,15 @@
         <v>90.43</v>
       </c>
       <c r="G491">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.1425000000000125</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H491">
+        <f t="shared" si="15"/>
+        <v>-2.0150000000000032</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>44586</v>
       </c>
@@ -42648,11 +44608,15 @@
         <v>87.82</v>
       </c>
       <c r="G492">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.875</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H492">
+        <f t="shared" si="15"/>
+        <v>-2.0115000000000007</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>44585</v>
       </c>
@@ -42672,11 +44636,15 @@
         <v>85.89</v>
       </c>
       <c r="G493">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.9725000000000108</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H493">
+        <f t="shared" si="15"/>
+        <v>-2.1145000000000009</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>44582</v>
       </c>
@@ -42696,11 +44664,15 @@
         <v>88.28</v>
       </c>
       <c r="G494">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.0974999999999966</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H494">
+        <f t="shared" si="15"/>
+        <v>-2.232499999999999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>44581</v>
       </c>
@@ -42720,11 +44692,15 @@
         <v>89.24</v>
       </c>
       <c r="G495">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.9874999999999972</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H495">
+        <f t="shared" si="15"/>
+        <v>-2.277000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>44580</v>
       </c>
@@ -42744,11 +44720,15 @@
         <v>88.875</v>
       </c>
       <c r="G496">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.125</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H496">
+        <f t="shared" si="15"/>
+        <v>-2.304000000000002</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>44579</v>
       </c>
@@ -42768,11 +44748,15 @@
         <v>87.15</v>
       </c>
       <c r="G497">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.3900000000000006</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H497">
+        <f t="shared" si="15"/>
+        <v>-2.2785000000000024</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>44578</v>
       </c>
@@ -42792,11 +44776,15 @@
         <v>86.46</v>
       </c>
       <c r="G498">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.5625</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H498">
+        <f t="shared" si="15"/>
+        <v>-2.2020000000000008</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>44575</v>
       </c>
@@ -42816,11 +44804,15 @@
         <v>85.61</v>
       </c>
       <c r="G499">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.3200000000000074</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H499">
+        <f t="shared" si="15"/>
+        <v>-2.2050000000000041</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>44574</v>
       </c>
@@ -42840,11 +44832,15 @@
         <v>84.64</v>
       </c>
       <c r="G500">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.1225000000000023</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H500">
+        <f t="shared" si="15"/>
+        <v>-2.2840000000000003</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>44573</v>
       </c>
@@ -42864,11 +44860,15 @@
         <v>84.95</v>
       </c>
       <c r="G501">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.9975000000000023</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H501">
+        <f t="shared" si="15"/>
+        <v>-2.4245000000000005</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>44572</v>
       </c>
@@ -42888,11 +44888,15 @@
         <v>83.46</v>
       </c>
       <c r="G502">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.0074999999999932</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H502">
+        <f t="shared" si="15"/>
+        <v>-2.625999999999999</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>44571</v>
       </c>
@@ -42912,11 +44916,15 @@
         <v>81.400000000000006</v>
       </c>
       <c r="G503">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.5775000000000148</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H503">
+        <f t="shared" si="15"/>
+        <v>-2.8900000000000006</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>44568</v>
       </c>
@@ -42936,11 +44944,15 @@
         <v>82.11</v>
       </c>
       <c r="G504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.7149999999999892</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H504">
+        <f>AVERAGE(G504:G508)</f>
+        <v>-3.0504999999999969</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>44567</v>
       </c>
@@ -42960,11 +44972,15 @@
         <v>82.5</v>
       </c>
       <c r="G505">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.8250000000000028</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H505">
+        <f t="shared" si="15"/>
+        <v>-3.1343749999999986</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>44566</v>
       </c>
@@ -42984,11 +45000,15 @@
         <v>81.305000000000007</v>
       </c>
       <c r="G506">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-3.0049999999999955</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H506">
+        <f t="shared" si="15"/>
+        <v>-3.2374999999999972</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>44565</v>
       </c>
@@ -43008,11 +45028,15 @@
         <v>79.72</v>
       </c>
       <c r="G507">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-3.3275000000000006</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H507">
+        <f t="shared" si="15"/>
+        <v>-3.353749999999998</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>44561</v>
       </c>
@@ -43032,7 +45056,11 @@
         <v>77.78</v>
       </c>
       <c r="G508">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
+        <v>-3.3799999999999955</v>
+      </c>
+      <c r="H508">
+        <f t="shared" si="15"/>
         <v>-3.3799999999999955</v>
       </c>
     </row>
